--- a/files/farmacii.xlsx
+++ b/files/farmacii.xlsx
@@ -1268,10 +1268,10 @@
     <t>SNAGOV</t>
   </si>
   <si>
-    <t>144 HELP NET GALATI</t>
-  </si>
-  <si>
     <t>148, HELP NET SNAGOV</t>
+  </si>
+  <si>
+    <t>144, HELP NET GALATI</t>
   </si>
 </sst>
 </file>
@@ -1588,8 +1588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="A147" sqref="A147"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4461,7 +4461,7 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B144" t="s">
         <v>405</v>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B147" t="s">
         <v>412</v>

--- a/files/farmacii.xlsx
+++ b/files/farmacii.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="farmacii" sheetId="1" r:id="rId1"/>
+    <sheet name="Coordonate Farmacii HN" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="418">
   <si>
     <t>1, HELP NET FARMA - TIMISOARA</t>
   </si>
@@ -38,6 +38,9 @@
     <t>Str. Gh. Lazar, nr.30</t>
   </si>
   <si>
+    <t>NON STOP</t>
+  </si>
+  <si>
     <t>2, HELP NET FARMA - CAMIL RESSU</t>
   </si>
   <si>
@@ -50,6 +53,9 @@
     <t>Bd. Camil Ressu, nr.12</t>
   </si>
   <si>
+    <t>9 :00- 21:00</t>
+  </si>
+  <si>
     <t>3, HELP NET FARMA - GARA DE NORD</t>
   </si>
   <si>
@@ -1121,15 +1127,6 @@
     <t>Str. Aleea Spitalului nr. 18</t>
   </si>
   <si>
-    <t>126, HELP NET FARMA - TIMISOARA 10</t>
-  </si>
-  <si>
-    <t>Calea Sagului Nr. 22</t>
-  </si>
-  <si>
-    <t>tbd</t>
-  </si>
-  <si>
     <t>127, HELP NET FARMA - IULIU MANIU 78-92 2</t>
   </si>
   <si>
@@ -1241,6 +1238,9 @@
     <t>Sos. Alexandriei, Nr. 152, Sector 5, Bucuresti ( zona Autogara Rahova)</t>
   </si>
   <si>
+    <t>144, GALATI</t>
+  </si>
+  <si>
     <t>In galeria comerciala a complexului Kaufland, str. Braila nr 144</t>
   </si>
   <si>
@@ -1262,16 +1262,22 @@
     <t>B-dul Ion Mihalache , nr. 201</t>
   </si>
   <si>
+    <t>148, HELP NET SNAGOV</t>
+  </si>
+  <si>
     <t>Sos. Ghermanesti, nr.59, sat. Ghermanesti</t>
   </si>
   <si>
     <t>SNAGOV</t>
   </si>
   <si>
-    <t>148, HELP NET SNAGOV</t>
-  </si>
-  <si>
-    <t>144, HELP NET GALATI</t>
+    <t>1000, HELP NET FARMA S.A. - SEDIU</t>
+  </si>
+  <si>
+    <t>Sediu HelpNet</t>
+  </si>
+  <si>
+    <t>Str. Ing George Consantinescu, Nr. 2-4</t>
   </si>
 </sst>
 </file>
@@ -1586,20 +1592,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F147"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="37.6640625" customWidth="1"/>
-    <col min="2" max="2" width="67.83203125" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1618,19 +1617,22 @@
       <c r="F1">
         <v>21.218022999999999</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>44.418328000000002</v>
@@ -1638,19 +1640,22 @@
       <c r="F2">
         <v>26.142759000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3">
         <v>44.444952000000001</v>
@@ -1658,19 +1663,22 @@
       <c r="F3">
         <v>26.074269000000001</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>44.440365999999997</v>
@@ -1678,19 +1686,22 @@
       <c r="F4">
         <v>26.133980999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>44.414625999999998</v>
@@ -1698,19 +1709,22 @@
       <c r="F5">
         <v>26.174358999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>44.438066999999997</v>
@@ -1718,19 +1732,22 @@
       <c r="F6">
         <v>26.138818000000001</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>44.433847999999998</v>
@@ -1738,19 +1755,22 @@
       <c r="F7">
         <v>26.019860000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E8">
         <v>44.418968</v>
@@ -1758,19 +1778,22 @@
       <c r="F8">
         <v>26.140345</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>44.437998999999998</v>
@@ -1778,19 +1801,22 @@
       <c r="F9">
         <v>26.158463000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E10">
         <v>44.434699000000002</v>
@@ -1798,19 +1824,22 @@
       <c r="F10">
         <v>26.029105999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E11">
         <v>44.453736999999997</v>
@@ -1818,19 +1847,22 @@
       <c r="F11">
         <v>26.050595999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12">
         <v>44.452724000000003</v>
@@ -1838,19 +1870,22 @@
       <c r="F12">
         <v>26.098555000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E13">
         <v>44.444141999999999</v>
@@ -1858,19 +1893,22 @@
       <c r="F13">
         <v>26.119586000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E14">
         <v>44.427613999999998</v>
@@ -1878,19 +1916,22 @@
       <c r="F14">
         <v>26.100777000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E15">
         <v>44.460303000000003</v>
@@ -1898,19 +1939,22 @@
       <c r="F15">
         <v>26.075462000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16">
         <v>44.423316999999997</v>
@@ -1918,19 +1962,22 @@
       <c r="F16">
         <v>26.071905999999998</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>44.941369999999999</v>
@@ -1938,19 +1985,22 @@
       <c r="F17">
         <v>26.020885</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E18">
         <v>44.441850000000002</v>
@@ -1958,19 +2008,22 @@
       <c r="F18">
         <v>26.138103999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E19">
         <v>44.419426000000001</v>
@@ -1978,19 +2031,22 @@
       <c r="F19">
         <v>26.048089999999998</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E20">
         <v>44.427194</v>
@@ -1998,19 +2054,22 @@
       <c r="F20">
         <v>26.137715</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D21" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21">
         <v>45.794848000000002</v>
@@ -2018,19 +2077,22 @@
       <c r="F21">
         <v>20.723868299999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E22">
         <v>44.199826899999998</v>
@@ -2038,19 +2100,22 @@
       <c r="F22">
         <v>28.6274695</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E23">
         <v>46.070044600000003</v>
@@ -2058,19 +2123,22 @@
       <c r="F23">
         <v>20.629836000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E24">
         <v>46.181818100000001</v>
@@ -2078,19 +2146,22 @@
       <c r="F24">
         <v>21.317266100000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E25">
         <v>44.435875000000003</v>
@@ -2098,19 +2169,22 @@
       <c r="F25">
         <v>26.104968</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E26">
         <v>44.411040999999997</v>
@@ -2118,19 +2192,22 @@
       <c r="F26">
         <v>26.071179000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E27">
         <v>44.463020999999998</v>
@@ -2138,19 +2215,22 @@
       <c r="F27">
         <v>26.131056999999998</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B28" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E28">
         <v>45.102862999999999</v>
@@ -2158,19 +2238,22 @@
       <c r="F28">
         <v>24.366403999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E29">
         <v>45.642636600000003</v>
@@ -2178,19 +2261,22 @@
       <c r="F29">
         <v>25.588733000000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" t="s">
         <v>91</v>
       </c>
-      <c r="C30" t="s">
-        <v>89</v>
-      </c>
       <c r="D30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E30">
         <v>45.644553000000002</v>
@@ -2198,19 +2284,22 @@
       <c r="F30">
         <v>25.591963</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E31">
         <v>44.857387299999999</v>
@@ -2218,19 +2307,22 @@
       <c r="F31">
         <v>24.8743503</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G31" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E32">
         <v>44.452323999999997</v>
@@ -2238,19 +2330,22 @@
       <c r="F32">
         <v>26.071999999999999</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C33" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E33">
         <v>44.842406199999999</v>
@@ -2258,19 +2353,22 @@
       <c r="F33">
         <v>24.881284999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E34">
         <v>44.466073000000002</v>
@@ -2278,19 +2376,22 @@
       <c r="F34">
         <v>26.067288000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E35">
         <v>44.461759000000001</v>
@@ -2298,19 +2399,22 @@
       <c r="F35">
         <v>26.094943000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E36">
         <v>45.758309099999998</v>
@@ -2318,19 +2422,22 @@
       <c r="F36">
         <v>21.2260092</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E37">
         <v>44.948872999999999</v>
@@ -2338,19 +2445,22 @@
       <c r="F37">
         <v>26.007830999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G37" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C38" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E38">
         <v>44.425972000000002</v>
@@ -2358,19 +2468,22 @@
       <c r="F38">
         <v>26.148161000000002</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G38" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C39" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D39" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E39">
         <v>46.043650999999997</v>
@@ -2378,19 +2491,22 @@
       <c r="F39">
         <v>20.477035000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E40">
         <v>46.070371000000002</v>
@@ -2398,19 +2514,22 @@
       <c r="F40">
         <v>23.576908</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B41" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" t="s">
         <v>125</v>
       </c>
-      <c r="C41" t="s">
-        <v>123</v>
-      </c>
       <c r="D41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E41">
         <v>46.0705721</v>
@@ -2418,19 +2537,22 @@
       <c r="F41">
         <v>23.558090400000001</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E42">
         <v>44.414706000000002</v>
@@ -2438,19 +2560,22 @@
       <c r="F42">
         <v>26.107213000000002</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G42" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B43" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C43" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D43" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E43">
         <v>44.421385000000001</v>
@@ -2458,19 +2583,22 @@
       <c r="F43">
         <v>26.064845999999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B44" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C44" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D44" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E44">
         <v>45.427604299999999</v>
@@ -2478,19 +2606,22 @@
       <c r="F44">
         <v>28.029478900000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D45" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E45">
         <v>44.427210000000002</v>
@@ -2498,19 +2629,22 @@
       <c r="F45">
         <v>26.066292000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G45" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C46" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D46" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E46">
         <v>44.422725999999997</v>
@@ -2518,19 +2652,22 @@
       <c r="F46">
         <v>26.034815999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D47" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E47">
         <v>44.434350999999999</v>
@@ -2538,19 +2675,22 @@
       <c r="F47">
         <v>26.019072000000001</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G47" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B48" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D48" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E48">
         <v>44.460168000000003</v>
@@ -2558,19 +2698,22 @@
       <c r="F48">
         <v>26.099875000000001</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G48" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B49" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C49" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E49">
         <v>44.462114</v>
@@ -2578,19 +2721,22 @@
       <c r="F49">
         <v>26.072040000000001</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B50" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C50" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E50">
         <v>44.425083000000001</v>
@@ -2598,19 +2744,22 @@
       <c r="F50">
         <v>26.165904999999999</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G50" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B51" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E51">
         <v>44.414600999999998</v>
@@ -2618,19 +2767,22 @@
       <c r="F51">
         <v>26.104959999999998</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G51" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B52" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E52">
         <v>44.444175999999999</v>
@@ -2638,19 +2790,22 @@
       <c r="F52">
         <v>26.096990999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C53" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E53">
         <v>44.461148999999999</v>
@@ -2658,19 +2813,22 @@
       <c r="F53">
         <v>26.094436000000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B54" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E54">
         <v>43.908444000000003</v>
@@ -2678,19 +2836,22 @@
       <c r="F54">
         <v>25.971115999999999</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E55">
         <v>45.749707800000003</v>
@@ -2698,19 +2859,22 @@
       <c r="F55">
         <v>21.207920000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G55" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B56" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E56">
         <v>44.433197</v>
@@ -2718,19 +2882,22 @@
       <c r="F56">
         <v>26.120038999999998</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D57" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E57">
         <v>46.774342099999998</v>
@@ -2738,19 +2905,22 @@
       <c r="F57">
         <v>23.592142899999999</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B58" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E58">
         <v>44.452336000000003</v>
@@ -2758,19 +2928,22 @@
       <c r="F58">
         <v>26.081724999999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G58" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B59" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D59" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E59">
         <v>44.940671000000002</v>
@@ -2778,19 +2951,22 @@
       <c r="F59">
         <v>26.024774000000001</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G59" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B60" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D60" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E60">
         <v>47.7915086</v>
@@ -2798,19 +2974,22 @@
       <c r="F60">
         <v>22.873615699999998</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G60" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B61" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C61" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D61" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E61">
         <v>44.562461900000002</v>
@@ -2818,19 +2997,22 @@
       <c r="F61">
         <v>27.3761616</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G61" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B62" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C62" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D62" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E62">
         <v>45.955598299999998</v>
@@ -2838,19 +3020,22 @@
       <c r="F62">
         <v>23.577897499999999</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B63" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C63" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E63">
         <v>44.560994000000001</v>
@@ -2858,19 +3043,22 @@
       <c r="F63">
         <v>27.347062999999999</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G63" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B64" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D64" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E64">
         <v>47.791797000000003</v>
@@ -2878,19 +3066,22 @@
       <c r="F64">
         <v>22.873833099999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B65" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C65" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D65" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E65">
         <v>45.686609799999999</v>
@@ -2898,19 +3089,22 @@
       <c r="F65">
         <v>21.9061089</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C66" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D66" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E66">
         <v>45.8824015</v>
@@ -2918,19 +3112,22 @@
       <c r="F66">
         <v>22.904662900000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G66" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B67" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C67" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D67" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E67">
         <v>45.6425755</v>
@@ -2938,19 +3135,22 @@
       <c r="F67">
         <v>25.591038399999999</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G67" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B68" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C68" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D68" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E68">
         <v>46.181379</v>
@@ -2958,19 +3158,22 @@
       <c r="F68">
         <v>21.309062999999998</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B69" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D69" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E69">
         <v>47.6514904</v>
@@ -2978,19 +3181,22 @@
       <c r="F69">
         <v>23.569611999999999</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G69" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B70" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C70" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D70" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E70">
         <v>44.459257999999998</v>
@@ -2998,19 +3204,22 @@
       <c r="F70">
         <v>26.127396000000001</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G70" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B71" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C71" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D71" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E71">
         <v>44.433540000000001</v>
@@ -3018,19 +3227,22 @@
       <c r="F71">
         <v>26.036090000000002</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B72" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C72" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D72" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E72">
         <v>45.865007499999997</v>
@@ -3038,19 +3250,22 @@
       <c r="F72">
         <v>25.787200800000001</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B73" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C73" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D73" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E73">
         <v>44.483987999999997</v>
@@ -3058,19 +3273,22 @@
       <c r="F73">
         <v>26.096625</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G73" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B74" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E74">
         <v>44.416189000000003</v>
@@ -3078,19 +3296,22 @@
       <c r="F74">
         <v>26.176217999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G74" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B75" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E75">
         <v>45.703533999999998</v>
@@ -3098,19 +3319,22 @@
       <c r="F75">
         <v>21.190546000000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G75" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B76" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E76">
         <v>44.486930999999998</v>
@@ -3118,19 +3342,22 @@
       <c r="F76">
         <v>26.037979</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G76" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B77" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C77" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E77">
         <v>44.393357000000002</v>
@@ -3138,19 +3365,22 @@
       <c r="F77">
         <v>26.109500000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G77" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B78" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C78" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D78" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E78">
         <v>47.170394100000003</v>
@@ -3158,19 +3388,22 @@
       <c r="F78">
         <v>27.564361300000002</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>236</v>
+      </c>
+      <c r="B79" t="s">
+        <v>237</v>
+      </c>
+      <c r="C79" t="s">
         <v>234</v>
       </c>
-      <c r="B79" t="s">
-        <v>235</v>
-      </c>
-      <c r="C79" t="s">
-        <v>232</v>
-      </c>
       <c r="D79" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E79">
         <v>47.163700599999999</v>
@@ -3178,19 +3411,22 @@
       <c r="F79">
         <v>27.591467699999999</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G79" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B80" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C80" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D80" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E80">
         <v>44.203690100000003</v>
@@ -3198,19 +3434,22 @@
       <c r="F80">
         <v>28.6486163</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B81" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C81" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D81" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E81">
         <v>44.438642000000002</v>
@@ -3218,19 +3457,22 @@
       <c r="F81">
         <v>26.104002000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B82" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C82" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D82" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E82">
         <v>45.6582857</v>
@@ -3238,19 +3480,22 @@
       <c r="F82">
         <v>25.596930100000002</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B83" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C83" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D83" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E83">
         <v>45.643102599999999</v>
@@ -3258,19 +3503,22 @@
       <c r="F83">
         <v>25.596314700000001</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G83" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B84" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D84" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E84">
         <v>44.466068999999997</v>
@@ -3278,19 +3526,22 @@
       <c r="F84">
         <v>26.06765</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G84" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B85" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E85">
         <v>44.430190000000003</v>
@@ -3298,19 +3549,22 @@
       <c r="F85">
         <v>26.165937</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G85" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B86" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E86">
         <v>45.752189100000002</v>
@@ -3318,19 +3572,22 @@
       <c r="F86">
         <v>21.225358</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B87" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C87" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D87" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E87">
         <v>44.484184999999997</v>
@@ -3338,19 +3595,22 @@
       <c r="F87">
         <v>26.092829999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G87" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B88" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E88">
         <v>45.780524800000002</v>
@@ -3358,19 +3618,22 @@
       <c r="F88">
         <v>21.220014500000001</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G88" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B89" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D89" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E89">
         <v>44.456117999999996</v>
@@ -3378,19 +3641,22 @@
       <c r="F89">
         <v>26.097242000000001</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G89" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B90" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C90" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D90" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E90">
         <v>47.159374800000002</v>
@@ -3398,19 +3664,22 @@
       <c r="F90">
         <v>27.611538400000001</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G90" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B91" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C91" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D91" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E91">
         <v>47.645679000000001</v>
@@ -3418,19 +3687,22 @@
       <c r="F91">
         <v>26.249789</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G91" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B92" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C92" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D92" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E92">
         <v>44.126835800000002</v>
@@ -3438,19 +3710,22 @@
       <c r="F92">
         <v>28.615251700000002</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G92" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B93" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C93" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D93" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E93">
         <v>46.765711500000002</v>
@@ -3458,19 +3733,22 @@
       <c r="F93">
         <v>23.551805099999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G93" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B94" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C94" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D94" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="E94">
         <v>47.799874000000003</v>
@@ -3478,19 +3756,22 @@
       <c r="F94">
         <v>22.874769000000001</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B95" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C95" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D95" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E95">
         <v>47.144554589999998</v>
@@ -3498,19 +3779,22 @@
       <c r="F95">
         <v>27.607835000000001</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G95" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B96" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C96" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D96" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="E96">
         <v>44.509180000000001</v>
@@ -3518,19 +3802,22 @@
       <c r="F96">
         <v>26.089096000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G96" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B97" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D97" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E97">
         <v>45.639418999999997</v>
@@ -3538,19 +3825,22 @@
       <c r="F97">
         <v>25.622464000000001</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E98">
         <v>45.731428000000001</v>
@@ -3558,19 +3848,22 @@
       <c r="F98">
         <v>21.262076199999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B99" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C99" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D99" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="E99">
         <v>46.755287699999997</v>
@@ -3578,19 +3871,22 @@
       <c r="F99">
         <v>23.5578243</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G99" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B100" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E100">
         <v>45.704279999999997</v>
@@ -3598,19 +3894,22 @@
       <c r="F100">
         <v>21.2166222</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G100" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B101" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C101" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D101" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="E101">
         <v>44.480573999999997</v>
@@ -3618,19 +3917,22 @@
       <c r="F101">
         <v>26.115947999999999</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G101" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B102" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C102" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D102" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E102">
         <v>44.428426999999999</v>
@@ -3638,19 +3940,22 @@
       <c r="F102">
         <v>26.105991</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G102" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B103" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C103" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D103" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="E103">
         <v>44.871692000000003</v>
@@ -3658,19 +3963,22 @@
       <c r="F103">
         <v>24.851455000000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G103" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B104" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C104" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D104" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E104">
         <v>44.458343999999997</v>
@@ -3678,19 +3986,22 @@
       <c r="F104">
         <v>26.078393999999999</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G104" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B105" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E105">
         <v>45.740093999999999</v>
@@ -3698,19 +4009,22 @@
       <c r="F105">
         <v>21.225671999999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B106" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D106" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E106">
         <v>44.484900000000003</v>
@@ -3718,19 +4032,22 @@
       <c r="F106">
         <v>26.033277999999999</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G106" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B107" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C107" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D107" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E107">
         <v>44.491214999999997</v>
@@ -3738,19 +4055,22 @@
       <c r="F107">
         <v>26.079575999999999</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G107" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B108" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C108" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D108" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E108">
         <v>44.926490999999999</v>
@@ -3758,19 +4078,22 @@
       <c r="F108">
         <v>25.463746</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G108" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B109" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E109">
         <v>44.439456</v>
@@ -3778,19 +4101,22 @@
       <c r="F109">
         <v>26.027477999999999</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G109" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B110" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C110" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D110" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="E110">
         <v>44.637483000000003</v>
@@ -3798,19 +4124,22 @@
       <c r="F110">
         <v>22.680416000000001</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G110" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B111" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D111" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="E111">
         <v>44.427948000000001</v>
@@ -3818,19 +4147,22 @@
       <c r="F111">
         <v>26.148299999999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G111" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B112" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C112" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D112" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E112">
         <v>44.601540999999997</v>
@@ -3838,19 +4170,22 @@
       <c r="F112">
         <v>26.070585999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G112" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B113" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C113" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D113" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E113">
         <v>44.420634999999997</v>
@@ -3858,19 +4193,22 @@
       <c r="F113">
         <v>26.164988999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B114" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C114" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D114" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E114">
         <v>47.640667000000001</v>
@@ -3878,19 +4216,22 @@
       <c r="F114">
         <v>22.889037999999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G114" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B115" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C115" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D115" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E115">
         <v>46.766421999999999</v>
@@ -3898,19 +4239,22 @@
       <c r="F115">
         <v>23.549433000000001</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G115" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B116" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C116" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D116" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E116">
         <v>45.117908</v>
@@ -3918,19 +4262,22 @@
       <c r="F116">
         <v>24.363218</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G116" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B117" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C117" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D117" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="E117">
         <v>44.452694999999999</v>
@@ -3938,19 +4285,22 @@
       <c r="F117">
         <v>26.111875999999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G117" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B118" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C118" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D118" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="E118">
         <v>44.451819</v>
@@ -3958,19 +4308,22 @@
       <c r="F118">
         <v>26.084181999999998</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G118" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B119" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C119" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E119">
         <v>44.474471000000001</v>
@@ -3978,19 +4331,22 @@
       <c r="F119">
         <v>26.068762</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G119" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B120" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C120" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D120" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="E120">
         <v>45.101947000000003</v>
@@ -3998,19 +4354,22 @@
       <c r="F120">
         <v>24.365331999999999</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G120" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B121" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D121" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E121">
         <v>44.461588999999996</v>
@@ -4018,19 +4377,22 @@
       <c r="F121">
         <v>26.073038</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G121" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B122" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C122" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D122" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E122">
         <v>44.432416000000003</v>
@@ -4038,19 +4400,22 @@
       <c r="F122">
         <v>26.071452000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G122" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B123" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D123" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="E123">
         <v>44.440389000000003</v>
@@ -4058,19 +4423,22 @@
       <c r="F123">
         <v>26.080891000000001</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G123" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B124" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C124" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D124" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E124">
         <v>44.494776000000002</v>
@@ -4078,19 +4446,22 @@
       <c r="F124">
         <v>26.014659000000002</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G124" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B125" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C125" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D125" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E125">
         <v>44.871653999999999</v>
@@ -4098,445 +4469,514 @@
       <c r="F125">
         <v>24.847249000000001</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G125" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B126" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C126" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D126" t="s">
-        <v>366</v>
-      </c>
-      <c r="E126" t="s">
-        <v>367</v>
-      </c>
-      <c r="F126" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+        <v>369</v>
+      </c>
+      <c r="E126">
+        <v>44.434429000000002</v>
+      </c>
+      <c r="F126">
+        <v>26.028086999999999</v>
+      </c>
+      <c r="G126" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B127" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C127" t="s">
-        <v>6</v>
+        <v>197</v>
       </c>
       <c r="D127" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E127">
-        <v>44.434429000000002</v>
+        <v>45.686644999999999</v>
       </c>
       <c r="F127">
-        <v>26.028086999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+        <v>21.907765999999999</v>
+      </c>
+      <c r="G127" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B128" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C128" t="s">
-        <v>195</v>
+        <v>91</v>
       </c>
       <c r="D128" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E128">
-        <v>45.686644999999999</v>
+        <v>45.66563</v>
       </c>
       <c r="F128">
-        <v>21.907765999999999</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25.599231</v>
+      </c>
+      <c r="G128" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B129" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C129" t="s">
-        <v>89</v>
+        <v>377</v>
       </c>
       <c r="D129" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E129">
-        <v>45.66563</v>
+        <v>44.551228999999999</v>
       </c>
       <c r="F129">
-        <v>25.599231</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26.072780000000002</v>
+      </c>
+      <c r="G129" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B130" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C130" t="s">
-        <v>378</v>
+        <v>97</v>
       </c>
       <c r="D130" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="E130">
-        <v>44.551228999999999</v>
+        <v>44.871581999999997</v>
       </c>
       <c r="F130">
-        <v>26.072780000000002</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24.843973999999999</v>
+      </c>
+      <c r="G130" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
+        <v>380</v>
+      </c>
+      <c r="B131" t="s">
+        <v>381</v>
+      </c>
+      <c r="C131" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" t="s">
+        <v>381</v>
+      </c>
+      <c r="E131">
+        <v>44.437975999999999</v>
+      </c>
+      <c r="F131">
+        <v>26.135684999999999</v>
+      </c>
+      <c r="G131" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>382</v>
+      </c>
+      <c r="B132" t="s">
         <v>379</v>
       </c>
-      <c r="B131" t="s">
-        <v>380</v>
-      </c>
-      <c r="C131" t="s">
-        <v>95</v>
-      </c>
-      <c r="D131" t="s">
-        <v>380</v>
-      </c>
-      <c r="E131">
-        <v>44.871581999999997</v>
-      </c>
-      <c r="F131">
-        <v>24.843973999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>381</v>
-      </c>
-      <c r="B132" t="s">
-        <v>382</v>
-      </c>
       <c r="C132" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="D132" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E132">
-        <v>44.437975999999999</v>
+        <v>44.844670000000001</v>
       </c>
       <c r="F132">
-        <v>26.135684999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24.881067000000002</v>
+      </c>
+      <c r="G132" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>383</v>
       </c>
       <c r="B133" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C133" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="D133" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="E133">
-        <v>44.844670000000001</v>
+        <v>43.891616999999997</v>
       </c>
       <c r="F133">
-        <v>24.881067000000002</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25.967739999999999</v>
+      </c>
+      <c r="G133" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B134" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C134" t="s">
-        <v>163</v>
+        <v>53</v>
       </c>
       <c r="D134" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E134">
-        <v>43.891616999999997</v>
+        <v>44.943952000000003</v>
       </c>
       <c r="F134">
-        <v>25.967739999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26.021298000000002</v>
+      </c>
+      <c r="G134" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B135" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C135" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D135" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E135">
-        <v>44.943952000000003</v>
+        <v>45.092314000000002</v>
       </c>
       <c r="F135">
-        <v>26.021298000000002</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+        <v>24.371713</v>
+      </c>
+      <c r="G135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B136" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C136" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="D136" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="E136">
-        <v>45.092314000000002</v>
+        <v>44.319271000000001</v>
       </c>
       <c r="F136">
-        <v>24.371713</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+        <v>28.603801000000001</v>
+      </c>
+      <c r="G136" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B137" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C137" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
       <c r="D137" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="E137">
-        <v>44.319271000000001</v>
+        <v>44.479779999999998</v>
       </c>
       <c r="F137">
-        <v>28.603801000000001</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26.100037</v>
+      </c>
+      <c r="G137" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B138" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C138" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D138" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E138">
-        <v>44.479779999999998</v>
+        <v>44.420279000000001</v>
       </c>
       <c r="F138">
-        <v>26.100037</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26.018508000000001</v>
+      </c>
+      <c r="G138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B139" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C139" t="s">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="D139" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E139">
-        <v>44.420279000000001</v>
+        <v>44.562693000000003</v>
       </c>
       <c r="F139">
-        <v>26.018508000000001</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27.361305000000002</v>
+      </c>
+      <c r="G139" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B140" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C140" t="s">
-        <v>184</v>
+        <v>7</v>
       </c>
       <c r="D140" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="E140">
-        <v>44.562693000000003</v>
+        <v>44.488191</v>
       </c>
       <c r="F140">
-        <v>27.361305000000002</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26.051618999999999</v>
+      </c>
+      <c r="G140" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B141" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C141" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D141" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E141">
-        <v>44.488191</v>
+        <v>44.516531999999998</v>
       </c>
       <c r="F141">
-        <v>26.051618999999999</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26.013863000000001</v>
+      </c>
+      <c r="G141" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B142" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D142" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="E142">
-        <v>44.516531999999998</v>
+        <v>44.399574000000001</v>
       </c>
       <c r="F142">
-        <v>26.013863000000001</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26.043849999999999</v>
+      </c>
+      <c r="G142" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B143" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C143" t="s">
-        <v>6</v>
+        <v>137</v>
       </c>
       <c r="D143" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E143">
-        <v>44.399574000000001</v>
-      </c>
-      <c r="F143">
-        <v>26.043849999999999</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+        <v>45.426881999999999</v>
+      </c>
+      <c r="F143" t="s">
+        <v>406</v>
+      </c>
+      <c r="G143" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
+        <v>407</v>
+      </c>
+      <c r="B144" t="s">
+        <v>408</v>
+      </c>
+      <c r="C144" t="s">
+        <v>409</v>
+      </c>
+      <c r="D144" t="s">
+        <v>408</v>
+      </c>
+      <c r="E144">
+        <v>44.199156000000002</v>
+      </c>
+      <c r="F144">
+        <v>27.330266999999999</v>
+      </c>
+      <c r="G144" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>410</v>
+      </c>
+      <c r="B145" t="s">
+        <v>411</v>
+      </c>
+      <c r="C145" t="s">
+        <v>7</v>
+      </c>
+      <c r="D145" t="s">
+        <v>411</v>
+      </c>
+      <c r="E145">
+        <v>44.465406000000002</v>
+      </c>
+      <c r="F145">
+        <v>26.066955</v>
+      </c>
+      <c r="G145" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>412</v>
+      </c>
+      <c r="B146" t="s">
+        <v>413</v>
+      </c>
+      <c r="C146" t="s">
+        <v>414</v>
+      </c>
+      <c r="D146" t="s">
+        <v>413</v>
+      </c>
+      <c r="E146">
+        <v>44.688599000000004</v>
+      </c>
+      <c r="F146">
+        <v>26.146923999999999</v>
+      </c>
+      <c r="G146" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
         <v>415</v>
       </c>
-      <c r="B144" t="s">
-        <v>405</v>
-      </c>
-      <c r="C144" t="s">
-        <v>135</v>
-      </c>
-      <c r="D144" t="s">
-        <v>405</v>
-      </c>
-      <c r="E144">
-        <v>45.426881999999999</v>
-      </c>
-      <c r="F144" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>407</v>
-      </c>
-      <c r="B145" t="s">
-        <v>408</v>
-      </c>
-      <c r="C145" t="s">
-        <v>409</v>
-      </c>
-      <c r="D145" t="s">
-        <v>408</v>
-      </c>
-      <c r="E145">
-        <v>44.199156000000002</v>
-      </c>
-      <c r="F145">
-        <v>27.330266999999999</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>410</v>
-      </c>
-      <c r="B146" t="s">
-        <v>411</v>
-      </c>
-      <c r="C146" t="s">
-        <v>6</v>
-      </c>
-      <c r="D146" t="s">
-        <v>411</v>
-      </c>
-      <c r="E146">
-        <v>44.465406000000002</v>
-      </c>
-      <c r="F146">
-        <v>26.066955</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>414</v>
-      </c>
       <c r="B147" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C147" t="s">
-        <v>413</v>
+        <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="E147">
-        <v>44.688599000000004</v>
+        <v>44.480876000000002</v>
       </c>
       <c r="F147">
-        <v>26.146923999999999</v>
+        <v>26.117827999999999</v>
+      </c>
+      <c r="G147" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/files/farmacii.xlsx
+++ b/files/farmacii.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="640" yWindow="460" windowWidth="24960" windowHeight="13840" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Coordonate Farmacii HN" sheetId="1" r:id="rId1"/>
+    <sheet name="farmacii" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1813" uniqueCount="737">
   <si>
     <t>1, HELP NET FARMA - TIMISOARA</t>
   </si>
@@ -41,6 +41,9 @@
     <t>NON STOP</t>
   </si>
   <si>
+    <t>0800 833 003</t>
+  </si>
+  <si>
     <t>2, HELP NET FARMA - CAMIL RESSU</t>
   </si>
   <si>
@@ -179,6 +182,9 @@
     <t>Calea 13 Septembrie, nr.126</t>
   </si>
   <si>
+    <t>800 833 003</t>
+  </si>
+  <si>
     <t>17, HELP NET FARMA - PLOIESTI 3</t>
   </si>
   <si>
@@ -767,7 +773,7 @@
     <t>83, HELP NET FARMA - STAR</t>
   </si>
   <si>
-    <t>Str.Nicolae Balcescu,Ênr.62, complex Star</t>
+    <t>Str.Nicolae Balcescu,ænr.62, complex Star</t>
   </si>
   <si>
     <t>Str. Nicolae Balcescu,nr.62</t>
@@ -1244,9 +1250,6 @@
     <t>In galeria comerciala a complexului Kaufland, str. Braila nr 144</t>
   </si>
   <si>
-    <t>28.022690 Ê Ê</t>
-  </si>
-  <si>
     <t>145, HELP NET FARMA - CALARASI</t>
   </si>
   <si>
@@ -1271,13 +1274,967 @@
     <t>SNAGOV</t>
   </si>
   <si>
-    <t>1000, HELP NET FARMA S.A. - SEDIU</t>
-  </si>
-  <si>
-    <t>Sediu HelpNet</t>
-  </si>
-  <si>
-    <t>Str. Ing George Consantinescu, Nr. 2-4</t>
+    <t>Catena Trapezului - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Trapezului, parter </t>
+  </si>
+  <si>
+    <t>8 :00- 21:00</t>
+  </si>
+  <si>
+    <t>021 348.33.03, 0741 10.68.44</t>
+  </si>
+  <si>
+    <t>Catena Grivitei 234 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cal. Grivitei, Nr.234, Bl.1, Sc.A, Ap.1 </t>
+  </si>
+  <si>
+    <t>021 666.12.93, 0744 35.92.81</t>
+  </si>
+  <si>
+    <t>Catena Margeanului 52 - Bucuresti</t>
+  </si>
+  <si>
+    <t>Str. Margeanului, Nr. 52, Bl M 124</t>
+  </si>
+  <si>
+    <t>021 420.21.68, 0741 10.66.67</t>
+  </si>
+  <si>
+    <t>Catena Nicolae Pascu 1A - Bucuresti</t>
+  </si>
+  <si>
+    <t>Str. Nicolae Pascu, Nr 1A, Bl 8, parter</t>
+  </si>
+  <si>
+    <t>0745 11.20.41, 0745 11.20.41</t>
+  </si>
+  <si>
+    <t>Catena Dudesti-Pantelimon 3 - Bucuresti</t>
+  </si>
+  <si>
+    <t>Sos. Dudesti-Pantelimon, poarta 1-23, nr.3</t>
+  </si>
+  <si>
+    <t>021 255.14.00, 0741 10.66.83</t>
+  </si>
+  <si>
+    <t>Catena Iancului 33 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sos. Iancului, nr. 33, Bl.105A, parter </t>
+  </si>
+  <si>
+    <t>021 250.21.18, 0741 10.67.60</t>
+  </si>
+  <si>
+    <t>Catena Pantelimon 148 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sos. Pantelimon, nr. 148 </t>
+  </si>
+  <si>
+    <t>021 250.51.54, 0741 10.67.56</t>
+  </si>
+  <si>
+    <t>Catena Aerogarii 32 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bdul Aerogarii, nr.32 </t>
+  </si>
+  <si>
+    <t>021 233.39.05, 0741 10.68.93</t>
+  </si>
+  <si>
+    <t>Catena P-ta Resita 2-4 - Bucuresti</t>
+  </si>
+  <si>
+    <t>Farm. 201, P-ta Resita, Nr.2-4, Bl.M1</t>
+  </si>
+  <si>
+    <t>021 450.37.00, 0745 11.20.33</t>
+  </si>
+  <si>
+    <t>Catena Emil Racovita 10 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Emil Racovita, nr. 10, bl. I9, Mag.409 </t>
+  </si>
+  <si>
+    <t>021 460.10.02, 0741 03.68.14</t>
+  </si>
+  <si>
+    <t>Catena Oltenitei 230 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sos. Oltenitei, Nr.230, Bl.24, et.P </t>
+  </si>
+  <si>
+    <t>021 634.20.54, 0747 06.20.79</t>
+  </si>
+  <si>
+    <t>Catena Secuilor 8 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Secuilor, nr. 8 </t>
+  </si>
+  <si>
+    <t>021 634.34.46, 0743 00.45.38</t>
+  </si>
+  <si>
+    <t>Catena VALIFARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B-dul Constantin Brancoveanu, nr.10, bl.B3 </t>
+  </si>
+  <si>
+    <t>021 636.33.20, 0741 10.68.90</t>
+  </si>
+  <si>
+    <t>Catena Mendeleev 7-15 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm. 202, P-ta Amzei-Str. Mendeleev, Nr.7-15 </t>
+  </si>
+  <si>
+    <t>021 313.23.95, 0745 06.43.48</t>
+  </si>
+  <si>
+    <t>Catena Stirbei Voda 17 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Stirbei Voda, Nr.17 </t>
+  </si>
+  <si>
+    <t>021 313.56.27, 0745 11.21.25</t>
+  </si>
+  <si>
+    <t>Catena Nicolae Balcescu 36 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bdul Nicolae Balcescu, Nr.36 </t>
+  </si>
+  <si>
+    <t>021 312.62.99, 0741 10.68.36</t>
+  </si>
+  <si>
+    <t>Catena RADIX PESCARILOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Pescarilor, nr. 4, parter </t>
+  </si>
+  <si>
+    <t>021 240.04.62</t>
+  </si>
+  <si>
+    <t>Catena Colentina 81 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sos Colentina, Nr. 81, Bl 84, parter </t>
+  </si>
+  <si>
+    <t>021 240.50.48, 0741 10.66.20</t>
+  </si>
+  <si>
+    <t>Catena Giulesti 38 - 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calea Giulesti, nr. 38-40 </t>
+  </si>
+  <si>
+    <t>021 220.40.95, 0741 10.66.59</t>
+  </si>
+  <si>
+    <t>Catena Crangasi 14 - Bucuresti</t>
+  </si>
+  <si>
+    <t>021 313.16.73, 0741 10.67.66</t>
+  </si>
+  <si>
+    <t>Catena Ion Mihalache 195 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bdul Ion Mihalache, Nr.195 </t>
+  </si>
+  <si>
+    <t>021 224.10.64, 0743 00.45.51</t>
+  </si>
+  <si>
+    <t>Catena Valea Oltului 12 - Bucuresti (actuala Dorobanti 152)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calea Dorobanti, nr 152, Bl 14, sc C ( fosta Str. Valea Oltului, nr.12, bl.C9) </t>
+  </si>
+  <si>
+    <t>021 230.31.66, 0741 10.67.57</t>
+  </si>
+  <si>
+    <t>Catena Ramnicu Valcea 16 -</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> BucurestiStr. Ramnicu Valcea, Nr.16, Bl.34 </t>
+  </si>
+  <si>
+    <t>BucurestiStr. Ramnicu Valcea, Nr.16, Bl.34</t>
+  </si>
+  <si>
+    <t>021 344.40.46, 0743 00.45.21</t>
+  </si>
+  <si>
+    <t>Catena Vitan 126 A - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calea Vitan, Nr.126 A </t>
+  </si>
+  <si>
+    <t>021 346.38.66, 0741 10.68.88</t>
+  </si>
+  <si>
+    <t>Catena Prelungirea Ghencea 28 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Prelungirea Ghencea, nr.28, Bl. C5 </t>
+  </si>
+  <si>
+    <t>0743 00.42.58, 0741 10.66.20</t>
+  </si>
+  <si>
+    <t>Catena 1 Mai Nr. 28 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bdul 1 Mai, nr. 28 </t>
+  </si>
+  <si>
+    <t>021 440.14.24, 0743 00.43.52</t>
+  </si>
+  <si>
+    <t>Catena Bachus 2 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Bachus, nr. 21 </t>
+  </si>
+  <si>
+    <t>021 450.86.33, 0744 33.35.37</t>
+  </si>
+  <si>
+    <t>Catena Giulesti 133 - Bucuresti</t>
+  </si>
+  <si>
+    <t>Calea Giulesti, Nr. 133</t>
+  </si>
+  <si>
+    <t>021 221.91.16, 0744 37.18.11</t>
+  </si>
+  <si>
+    <t>Catena Paulis 8 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strada Cernisoara, nr. 24 (fosta Paulis) </t>
+  </si>
+  <si>
+    <t>021 434.24.49, 0742 10.24.86</t>
+  </si>
+  <si>
+    <t>Catena Apusului 50 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Apusului, nr. 50 </t>
+  </si>
+  <si>
+    <t>021 434.14.03, 0743 00.44.82</t>
+  </si>
+  <si>
+    <t>Catena Stefan cel Mare 31 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Stefan cel Mare, Nr.31 </t>
+  </si>
+  <si>
+    <t>021 212.11.09, 0741 10.68.98</t>
+  </si>
+  <si>
+    <t>Catena IDEAFARM Pantelimon</t>
+  </si>
+  <si>
+    <t>Sos. Pantelimon, nr. 350, Bl.4, parter</t>
+  </si>
+  <si>
+    <t>021 255.53.28, 0741 10.66.19</t>
+  </si>
+  <si>
+    <t>Catena Lucretiu Patrascanu 19 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bd Lucretiu Patrascanu, Nr 19, Bl MC18A, complex comercial CA37 </t>
+  </si>
+  <si>
+    <t>0743 00.46.15, 0743 00.46.15</t>
+  </si>
+  <si>
+    <t>Catena Plevnei 122 (fosta 142-144 - Bucuresti )</t>
+  </si>
+  <si>
+    <t>Calea Plevnei, nr. 122 (fosta 142-144)</t>
+  </si>
+  <si>
+    <t>0741 10.67.14</t>
+  </si>
+  <si>
+    <t>Catena Rahovei 321 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cal. Rahovei, nr. 321, bl. 28 </t>
+  </si>
+  <si>
+    <t>021 423.02.08, 0741 10.68.50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Margeanului, Nr. 52, Bl M 124 </t>
+  </si>
+  <si>
+    <t>Catena Nicolae Titulescu 12 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bd Niculae Titulescu, Nr 12, Bl 21A, parter </t>
+  </si>
+  <si>
+    <t>021 310.82.83, 0747 02.05.77</t>
+  </si>
+  <si>
+    <t>Catena Grivitei 158 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calea Grivitei, nr.158 </t>
+  </si>
+  <si>
+    <t>021 222.16.35, 0741 10.69.70</t>
+  </si>
+  <si>
+    <t>Catena Stefan cel Mare 36 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Stefan cel Mare 36, bl.30B, parter </t>
+  </si>
+  <si>
+    <t>021 210.91.25, 0741 10.68.90</t>
+  </si>
+  <si>
+    <t>Catena C-tin Radulescu Motru</t>
+  </si>
+  <si>
+    <t>Str. C-tin Radulescu Motru, Nr. 2-4, Bl.1-2, parter</t>
+  </si>
+  <si>
+    <t>021 330.13.88, 0741 10.68.51</t>
+  </si>
+  <si>
+    <t>Catena Liviu Rebreanu 2 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Liviu Rebreanu, nr. 2 </t>
+  </si>
+  <si>
+    <t>021 348.26.66, 0745 11.20.41</t>
+  </si>
+  <si>
+    <t>Catena Prevederii 13A - Bucuresti</t>
+  </si>
+  <si>
+    <t>Str. Prevederii, nr.13 A</t>
+  </si>
+  <si>
+    <t>021 348.51.93, 0741 10.67.32</t>
+  </si>
+  <si>
+    <t>Catena Campia Libertatii 46 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campia Libertatii, Nr.46, Bl.52, parter </t>
+  </si>
+  <si>
+    <t>021 308.60.80, 0741 10.68.34</t>
+  </si>
+  <si>
+    <t>Catena Gura Ialomitei 1 - Bucuresti</t>
+  </si>
+  <si>
+    <t>Str. Gura Ialomitei, Nr. 1</t>
+  </si>
+  <si>
+    <t>021 345.06.59, 0741 10.68.37</t>
+  </si>
+  <si>
+    <t>Catena Nicolae Grigorescu 53 - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Nicolae Grigorescu, Nr. 53 </t>
+  </si>
+  <si>
+    <t>021 348.02.82, 0747 02.05.81</t>
+  </si>
+  <si>
+    <t>Catena RADIX CAMPINEANCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Campineanca, nr.1, Bl. P103, parter </t>
+  </si>
+  <si>
+    <t>021 345.46.86, 0741 10.67.45</t>
+  </si>
+  <si>
+    <t>Catena RUCAR (Eventus Farm)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Baba Novac, nr.11A, bl 1 </t>
+  </si>
+  <si>
+    <t>021 324.41.50, 0743 00.44.17</t>
+  </si>
+  <si>
+    <t>Catena Vitan 17A - Bucuresti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calea Vitan, Nr. 17A </t>
+  </si>
+  <si>
+    <t>021 327.41.47, 0743 00.42.19</t>
+  </si>
+  <si>
+    <t>Catena Iuliu Maniu 280</t>
+  </si>
+  <si>
+    <t>Strada Iuliu Maniu nr. 280</t>
+  </si>
+  <si>
+    <t>ALBA</t>
+  </si>
+  <si>
+    <t>0800 470 539</t>
+  </si>
+  <si>
+    <t>Catena Natiunii 11</t>
+  </si>
+  <si>
+    <t>Natiunii, nr. 11</t>
+  </si>
+  <si>
+    <t>Catena P-ta Garii 11</t>
+  </si>
+  <si>
+    <t>Piata Garii, Nr.11, Bl.G, Sc.B, Parter</t>
+  </si>
+  <si>
+    <t>0257 25.53.73, 0741 10.69.55</t>
+  </si>
+  <si>
+    <t>Catena P-ta Arenei 6 - Arad</t>
+  </si>
+  <si>
+    <t>Piata Arenei, Nr.6, Bl.E, Sc.A, Ap.13, parter</t>
+  </si>
+  <si>
+    <t>0257 28.12.48, 0744 38.18.55</t>
+  </si>
+  <si>
+    <t>Catena IDEEAMED BACAU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Pasajul Revolutiei, nr. 3 </t>
+  </si>
+  <si>
+    <t>BACAU</t>
+  </si>
+  <si>
+    <t>0234 51.01.84, 0743 00.40.83</t>
+  </si>
+  <si>
+    <t>Catena Unirii 12</t>
+  </si>
+  <si>
+    <t>Bd. Unirii, nr.12</t>
+  </si>
+  <si>
+    <t>0262 25.09.68, 0743 00.46.16</t>
+  </si>
+  <si>
+    <t>Catena Decebal 25 - Bistrita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bd Decebal, Nr.25, Bl. J </t>
+  </si>
+  <si>
+    <t>BISTRITA</t>
+  </si>
+  <si>
+    <t>0263 23.58.09, 0743 00.44.22</t>
+  </si>
+  <si>
+    <t>Catena Mestesugarilor 73/B - Oradea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Mestesugarilor, nr.73/B </t>
+  </si>
+  <si>
+    <t>ORADEA</t>
+  </si>
+  <si>
+    <t>0259 41.18.91, 0747 77.91.89</t>
+  </si>
+  <si>
+    <t>Catena Garoafei 10 - Oradea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Garoafei, nr.10, ap.3/A </t>
+  </si>
+  <si>
+    <t>0259 42.89.90, 0743 00.47.29</t>
+  </si>
+  <si>
+    <t>Catena Dragos Voda (fosta Cerbului 1 - Oradea)</t>
+  </si>
+  <si>
+    <t>Dragos Voda, C19, parter (fosta Str. Cerbului, Nr.1, Bl.PB23, Ap.1)</t>
+  </si>
+  <si>
+    <t>0259 43.58.98, 0743 00.43.46</t>
+  </si>
+  <si>
+    <t>Catena Republicii 35 - Oradea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bdul Republicii, Nr. 35, Camera 1, Ap. P </t>
+  </si>
+  <si>
+    <t>0259 46.78.61, 0741 10.69.54</t>
+  </si>
+  <si>
+    <t>Catena Ioan Cantacuzino 19 - 21 (fosta Piata 22 Decembrie 9A - Oradea)</t>
+  </si>
+  <si>
+    <t>Ioan Cantacuzino, nr 19 -21, bl.AN46, parter (fosta P-ta 22 Decembrie, Nr 9A, Bl R10A, parter</t>
+  </si>
+  <si>
+    <t>0259 46.81.88, 0743 00.46.75</t>
+  </si>
+  <si>
+    <t>Catena Eremia Grigorescu - Pitesti</t>
+  </si>
+  <si>
+    <t>Farm. 106, Str. Eremia Grigorescu, Bl.P1, parter</t>
+  </si>
+  <si>
+    <t>0248 63.36.55, 0747 77.91.99</t>
+  </si>
+  <si>
+    <t>Catena Aleea Spitalul Judetean - Pitesti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm.1A, Aleea Spitalului Judetean, nr 16 </t>
+  </si>
+  <si>
+    <t>0248 28.36.05</t>
+  </si>
+  <si>
+    <t>Catena P-ta V.Milea 8 - Pitesti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm.1, P-ta V.Milea, Nr.8, Complex Comercial Fortuna </t>
+  </si>
+  <si>
+    <t>0248 63.67.43, 0743 00.44.77</t>
+  </si>
+  <si>
+    <t>Catena Maior Sontu - Pitesti</t>
+  </si>
+  <si>
+    <t>Farm. 3, Str. Maior Sontu, Bl.D4,Tronson, parter</t>
+  </si>
+  <si>
+    <t>0248 21.16.12, 0747 77.92.01</t>
+  </si>
+  <si>
+    <t>Catena Petrochimistilor - Pitesti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm.52, B-dul Petrochimistilor 13, Bl.B8, parter </t>
+  </si>
+  <si>
+    <t>0248 22.09.50, 0747 77.92.00</t>
+  </si>
+  <si>
+    <t>Catena Teilor - Pitesti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Teilor , 45, bloc PS36, sc. B, ap. 1 </t>
+  </si>
+  <si>
+    <t>0248 22.39.33</t>
+  </si>
+  <si>
+    <t>Catena Negru Voda - Pitesti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Negru Voda, Complex Nord </t>
+  </si>
+  <si>
+    <t>0248 22.40.43</t>
+  </si>
+  <si>
+    <t>Catena Crinului 15 - Pitesti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Crinului, nr. 15 </t>
+  </si>
+  <si>
+    <t>0248 22.40.41</t>
+  </si>
+  <si>
+    <t>Farmacia Catena Ina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Postei, nr. 17 </t>
+  </si>
+  <si>
+    <t>0244 59.27.20, 0743 00.45.56</t>
+  </si>
+  <si>
+    <t>Catena</t>
+  </si>
+  <si>
+    <t>piata libertatii 14 SATU MARE</t>
+  </si>
+  <si>
+    <t>Catena Nicolae Golescu 25 - Satu Mare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Nicolae Golescu, nr. 25 </t>
+  </si>
+  <si>
+    <t>0261 71.07.40, 0743 00.46.66</t>
+  </si>
+  <si>
+    <t>Catena Crisului 6 - Brasov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Crisului, Nr.6, Bl.D16, Sc.A, Ap.2 </t>
+  </si>
+  <si>
+    <t>0368 45.65.53, 0743 00.42.25</t>
+  </si>
+  <si>
+    <t>Catena Zizinului 2 - Brasov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Zizinului, nr.2, bl.40, sc.C, parter </t>
+  </si>
+  <si>
+    <t>0268 31.31.15, 0743 00.41.84</t>
+  </si>
+  <si>
+    <t>Catena Al.Vlahuta 42 - Brasov</t>
+  </si>
+  <si>
+    <t>Bdul Al.Vlahuta, Nr. 42</t>
+  </si>
+  <si>
+    <t>0268/32846, 0743/004226</t>
+  </si>
+  <si>
+    <t>Catena Jepilor 2 - Brasov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Jepilor, nr.2, bloc A8, sc. B </t>
+  </si>
+  <si>
+    <t>0268 54.04.11, 0747 06.20.78</t>
+  </si>
+  <si>
+    <t>Catena Septimiu Albinii 113 - Cluj Napoca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Septimiu Albinii, nr.113 </t>
+  </si>
+  <si>
+    <t>CLUJ</t>
+  </si>
+  <si>
+    <t>0264 44.04.12, 0743 00.44.51</t>
+  </si>
+  <si>
+    <t>Catena Tribunul Vladutiu 17 - Cluj Napoca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str Tribunul Vladutiu Nr 17 </t>
+  </si>
+  <si>
+    <t>0264 41.00.28, 0743 00.45.90</t>
+  </si>
+  <si>
+    <t>Catena P-ta. Mihai Viteazu 36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pta. Mihai Viteazu, nr.36, Ap.8 </t>
+  </si>
+  <si>
+    <t>0264 48.72.98, 0743 00.44.75</t>
+  </si>
+  <si>
+    <t>Bd Mihail Viteazu 11 , sibiu</t>
+  </si>
+  <si>
+    <t>SIBIU</t>
+  </si>
+  <si>
+    <t>Catena Hermann Oberth 4 - Sibiu</t>
+  </si>
+  <si>
+    <t>Str. Hermann Oberth, Nr.4</t>
+  </si>
+  <si>
+    <t>0269 23.51.42, 0743 00.42.62</t>
+  </si>
+  <si>
+    <t>Catena Semaforului - Sibiu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Semaforului bloc 13 </t>
+  </si>
+  <si>
+    <t>0269 24.71.74, 0744 37.23.16</t>
+  </si>
+  <si>
+    <t>Catena Victoriei - Sibiu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Victoriei, bl.29 </t>
+  </si>
+  <si>
+    <t>0269 24.29.22, 0743 00.42.56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Bogdan Voda, Nr.4 </t>
+  </si>
+  <si>
+    <t>SIGHETU MARMATIEI</t>
+  </si>
+  <si>
+    <t>0262 31.86.77, 0743 00.46.45</t>
+  </si>
+  <si>
+    <t>Catena George Enescu 19 - Suceava</t>
+  </si>
+  <si>
+    <t>Bdul George Enescu, nr. 2, bloc 7</t>
+  </si>
+  <si>
+    <t>0230 21.72.97, 0741 10.69.07</t>
+  </si>
+  <si>
+    <t>Catena 1 Decembrie 1918 Nr.251 - Tg.Mures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bdul 1 Decembrie 1918, nr.251 </t>
+  </si>
+  <si>
+    <t>TG MURES</t>
+  </si>
+  <si>
+    <t>0265 21.70.27, 0743 00.41.52</t>
+  </si>
+  <si>
+    <t>Catena Mihai Viteazu 31 - Tg.Mures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Mihai Viteazu, nr.31 </t>
+  </si>
+  <si>
+    <t>0265 26.38.10, 0740 11.55.57</t>
+  </si>
+  <si>
+    <t>Catena Mercy 9 - Timisoara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Mercy, Nr.9 </t>
+  </si>
+  <si>
+    <t>0256 43.01.52, 0743 00.47.04</t>
+  </si>
+  <si>
+    <t>Catena Gh. Lazar 42 - Timisoara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Gh. Lazar, nr.42 </t>
+  </si>
+  <si>
+    <t>0256 24.49.43, 0741 10.69.53</t>
+  </si>
+  <si>
+    <t>Catena ADENAFARM SRL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Sf.Ap.Petru si Pavel,nr.15, bl.A40, sc.B, parter </t>
+  </si>
+  <si>
+    <t>Strada Razoarelor 49, Constanta</t>
+  </si>
+  <si>
+    <t>Catena Soveja 66A - Constanta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Soveja, nr.66A, bl.O5 </t>
+  </si>
+  <si>
+    <t>0241 61.44.27, 0744 38.18.09</t>
+  </si>
+  <si>
+    <t>Catena Ogorului - Navodari</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Ogorului, bloc O6, sc. C, etaj P, ap. 32 </t>
+  </si>
+  <si>
+    <t>0241 76.11.64, 0743 00.45.25</t>
+  </si>
+  <si>
+    <t>Catena Unirii 14 - Craiova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calea Unirii, Incinta Mercur SA, nr. 14 </t>
+  </si>
+  <si>
+    <t>CRAIOVA</t>
+  </si>
+  <si>
+    <t>0251 40.78.05, 0741 10.68.68</t>
+  </si>
+  <si>
+    <t>Catena Al. Ioan Cuza 4 - Craiova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Al. Ioan Cuza nr. 4, bl.150, parter </t>
+  </si>
+  <si>
+    <t>0251 41.55.01, 0741 10.69.12</t>
+  </si>
+  <si>
+    <t>Catena Nicolae Titulescu - Craiova</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bdul Nicolae Titulescu, bl.I5, sc.B </t>
+  </si>
+  <si>
+    <t>0251 42.23.00, 0741 10.69.01</t>
+  </si>
+  <si>
+    <t>Catena Decebal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bdul Decebal, bl.D, sc. B </t>
+  </si>
+  <si>
+    <t>0254 21.52.53, 0743 00.42.84</t>
+  </si>
+  <si>
+    <t>Catena Copou 48 - Iasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bd. Copou, Nr.48, parter </t>
+  </si>
+  <si>
+    <t>0232 25.02.33, 0741 10.69.11</t>
+  </si>
+  <si>
+    <t>Catena Vasile Lupu 85 - Iasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Costache Negri, Nr.9, Bl.C4, Parter(fosta Vasile Lupu) </t>
+  </si>
+  <si>
+    <t>0232 26.21.26, 0743 00.40.47</t>
+  </si>
+  <si>
+    <t>Catena Galata II - Iasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Str. Galata II, Bl.E4A, parter </t>
+  </si>
+  <si>
+    <t>0232 23.07.04, 0743 00.40.46</t>
+  </si>
+  <si>
+    <t>Catena Socola 53 - Iasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bd. Socola, nr.53 </t>
+  </si>
+  <si>
+    <t>0232/23.26.4, 0743/004448</t>
+  </si>
+  <si>
+    <t>Catena Sos Arcu 1 - Iasi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sos. Arcu, Nr.1, bl.T3, parter </t>
+  </si>
+  <si>
+    <t>0232 26.76.12, 0743 00.40.39</t>
+  </si>
+  <si>
+    <t>Bd Constantin A. Rosetti 1, bl 304</t>
+  </si>
+  <si>
+    <t>Catena Strada Turnului 23, sibiu</t>
+  </si>
+  <si>
+    <t>Catena Piata Victoriei 18, targu mures</t>
+  </si>
+  <si>
+    <t>TARGU MURES</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Catena Strada Koos Ferenk 1,  targu mures</t>
+  </si>
+  <si>
+    <t>800 470 539</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catena </t>
+  </si>
+  <si>
+    <t>Strada Venus nr 1</t>
+  </si>
+  <si>
+    <t>Piata Victoriei nr 4</t>
+  </si>
+  <si>
+    <t>Calea Sagului nr 55A</t>
+  </si>
+  <si>
+    <t>strada victoriei 13 A, Hunedoara</t>
+  </si>
+  <si>
+    <t>HUNEDOARA</t>
+  </si>
+  <si>
+    <t>Bd Dacia 31</t>
+  </si>
+  <si>
+    <t>Bd Dacia 23</t>
+  </si>
+  <si>
+    <t>Bd. Carol 1 48, iasi</t>
+  </si>
+  <si>
+    <t>Piata Unirii 3</t>
+  </si>
+  <si>
+    <t>helpnet.jpg</t>
+  </si>
+  <si>
+    <t>catena.jpg</t>
   </si>
 </sst>
 </file>
@@ -1592,13 +2549,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G147"/>
+  <dimension ref="A1:I259"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="I147" sqref="I147:I259"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1620,19 +2579,25 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>44.418328000000002</v>
@@ -1641,21 +2606,27 @@
         <v>26.142759000000002</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3">
         <v>44.444952000000001</v>
@@ -1664,21 +2635,27 @@
         <v>26.074269000000001</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>44.440365999999997</v>
@@ -1689,19 +2666,25 @@
       <c r="G4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
         <v>44.414625999999998</v>
@@ -1710,21 +2693,27 @@
         <v>26.174358999999999</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>44.438066999999997</v>
@@ -1733,21 +2722,27 @@
         <v>26.138818000000001</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>44.433847999999998</v>
@@ -1756,21 +2751,27 @@
         <v>26.019860000000001</v>
       </c>
       <c r="G7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8">
         <v>44.418968</v>
@@ -1779,21 +2780,27 @@
         <v>26.140345</v>
       </c>
       <c r="G8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H8" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9">
         <v>44.437998999999998</v>
@@ -1802,21 +2809,27 @@
         <v>26.158463000000001</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H9" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>44.434699000000002</v>
@@ -1825,21 +2838,27 @@
         <v>26.029105999999999</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11">
         <v>44.453736999999997</v>
@@ -1848,21 +2867,27 @@
         <v>26.050595999999999</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E12">
         <v>44.452724000000003</v>
@@ -1871,21 +2896,27 @@
         <v>26.098555000000001</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E13">
         <v>44.444141999999999</v>
@@ -1894,21 +2925,27 @@
         <v>26.119586000000002</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>44.427613999999998</v>
@@ -1919,19 +2956,25 @@
       <c r="G14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H14" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <v>44.460303000000003</v>
@@ -1942,19 +2985,25 @@
       <c r="G15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H15" t="s">
+        <v>5</v>
+      </c>
+      <c r="I15" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16">
         <v>44.423316999999997</v>
@@ -1965,19 +3014,25 @@
       <c r="G16" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" t="s">
+        <v>52</v>
+      </c>
+      <c r="I16" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E17">
         <v>44.941369999999999</v>
@@ -1986,21 +3041,27 @@
         <v>26.020885</v>
       </c>
       <c r="G17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H17" t="s">
+        <v>52</v>
+      </c>
+      <c r="I17" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E18">
         <v>44.441850000000002</v>
@@ -2009,21 +3070,27 @@
         <v>26.138103999999998</v>
       </c>
       <c r="G18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H18" t="s">
+        <v>52</v>
+      </c>
+      <c r="I18" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E19">
         <v>44.419426000000001</v>
@@ -2032,21 +3099,27 @@
         <v>26.048089999999998</v>
       </c>
       <c r="G19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H19" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E20">
         <v>44.427194</v>
@@ -2055,21 +3128,27 @@
         <v>26.137715</v>
       </c>
       <c r="G20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H20" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E21">
         <v>45.794848000000002</v>
@@ -2078,21 +3157,27 @@
         <v>20.723868299999999</v>
       </c>
       <c r="G21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H21" t="s">
+        <v>52</v>
+      </c>
+      <c r="I21" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E22">
         <v>44.199826899999998</v>
@@ -2101,21 +3186,27 @@
         <v>28.6274695</v>
       </c>
       <c r="G22" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H22" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D23" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E23">
         <v>46.070044600000003</v>
@@ -2124,21 +3215,27 @@
         <v>20.629836000000001</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H23" t="s">
+        <v>52</v>
+      </c>
+      <c r="I23" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E24">
         <v>46.181818100000001</v>
@@ -2147,21 +3244,27 @@
         <v>21.317266100000001</v>
       </c>
       <c r="G24" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I24" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E25">
         <v>44.435875000000003</v>
@@ -2170,21 +3273,27 @@
         <v>26.104968</v>
       </c>
       <c r="G25" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H25" t="s">
+        <v>52</v>
+      </c>
+      <c r="I25" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E26">
         <v>44.411040999999997</v>
@@ -2193,21 +3302,27 @@
         <v>26.071179000000001</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H26" t="s">
+        <v>52</v>
+      </c>
+      <c r="I26" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E27">
         <v>44.463020999999998</v>
@@ -2216,21 +3331,27 @@
         <v>26.131056999999998</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H27" t="s">
+        <v>52</v>
+      </c>
+      <c r="I27" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D28" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E28">
         <v>45.102862999999999</v>
@@ -2239,21 +3360,27 @@
         <v>24.366403999999999</v>
       </c>
       <c r="G28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H28" t="s">
+        <v>52</v>
+      </c>
+      <c r="I28" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C29" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E29">
         <v>45.642636600000003</v>
@@ -2262,21 +3389,27 @@
         <v>25.588733000000001</v>
       </c>
       <c r="G29" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H29" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" t="s">
         <v>93</v>
       </c>
-      <c r="C30" t="s">
-        <v>91</v>
-      </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E30">
         <v>45.644553000000002</v>
@@ -2285,21 +3418,27 @@
         <v>25.591963</v>
       </c>
       <c r="G30" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H30" t="s">
+        <v>52</v>
+      </c>
+      <c r="I30" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B31" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C31" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E31">
         <v>44.857387299999999</v>
@@ -2308,21 +3447,27 @@
         <v>24.8743503</v>
       </c>
       <c r="G31" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H31" t="s">
+        <v>52</v>
+      </c>
+      <c r="I31" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E32">
         <v>44.452323999999997</v>
@@ -2331,21 +3476,27 @@
         <v>26.071999999999999</v>
       </c>
       <c r="G32" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H32" t="s">
+        <v>52</v>
+      </c>
+      <c r="I32" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E33">
         <v>44.842406199999999</v>
@@ -2356,19 +3507,25 @@
       <c r="G33" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H33" t="s">
+        <v>52</v>
+      </c>
+      <c r="I33" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E34">
         <v>44.466073000000002</v>
@@ -2377,21 +3534,27 @@
         <v>26.067288000000001</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H34" t="s">
+        <v>52</v>
+      </c>
+      <c r="I34" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B35" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E35">
         <v>44.461759000000001</v>
@@ -2400,21 +3563,27 @@
         <v>26.094943000000001</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H35" t="s">
+        <v>52</v>
+      </c>
+      <c r="I35" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C36" t="s">
         <v>2</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E36">
         <v>45.758309099999998</v>
@@ -2425,19 +3594,25 @@
       <c r="G36" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E37">
         <v>44.948872999999999</v>
@@ -2446,21 +3621,27 @@
         <v>26.007830999999999</v>
       </c>
       <c r="G37" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H37" t="s">
+        <v>52</v>
+      </c>
+      <c r="I37" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B38" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E38">
         <v>44.425972000000002</v>
@@ -2469,21 +3650,27 @@
         <v>26.148161000000002</v>
       </c>
       <c r="G38" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H38" t="s">
+        <v>52</v>
+      </c>
+      <c r="I38" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C39" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E39">
         <v>46.043650999999997</v>
@@ -2492,21 +3679,27 @@
         <v>20.477035000000001</v>
       </c>
       <c r="G39" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H39" t="s">
+        <v>52</v>
+      </c>
+      <c r="I39" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C40" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D40" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E40">
         <v>46.070371000000002</v>
@@ -2515,21 +3708,27 @@
         <v>23.576908</v>
       </c>
       <c r="G40" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H40" t="s">
+        <v>52</v>
+      </c>
+      <c r="I40" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B41" t="s">
+        <v>129</v>
+      </c>
+      <c r="C41" t="s">
         <v>127</v>
       </c>
-      <c r="C41" t="s">
-        <v>125</v>
-      </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E41">
         <v>46.0705721</v>
@@ -2538,21 +3737,27 @@
         <v>23.558090400000001</v>
       </c>
       <c r="G41" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H41" t="s">
+        <v>52</v>
+      </c>
+      <c r="I41" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B42" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D42" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E42">
         <v>44.414706000000002</v>
@@ -2561,21 +3766,27 @@
         <v>26.107213000000002</v>
       </c>
       <c r="G42" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H42" t="s">
+        <v>52</v>
+      </c>
+      <c r="I42" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B43" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E43">
         <v>44.421385000000001</v>
@@ -2584,21 +3795,27 @@
         <v>26.064845999999999</v>
       </c>
       <c r="G43" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H43" t="s">
+        <v>52</v>
+      </c>
+      <c r="I43" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B44" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C44" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D44" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E44">
         <v>45.427604299999999</v>
@@ -2607,21 +3824,27 @@
         <v>28.029478900000001</v>
       </c>
       <c r="G44" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H44" t="s">
+        <v>52</v>
+      </c>
+      <c r="I44" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B45" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E45">
         <v>44.427210000000002</v>
@@ -2630,21 +3853,27 @@
         <v>26.066292000000001</v>
       </c>
       <c r="G45" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H45" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B46" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D46" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E46">
         <v>44.422725999999997</v>
@@ -2655,19 +3884,25 @@
       <c r="G46" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H46" t="s">
+        <v>52</v>
+      </c>
+      <c r="I46" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B47" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D47" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E47">
         <v>44.434350999999999</v>
@@ -2676,21 +3911,27 @@
         <v>26.019072000000001</v>
       </c>
       <c r="G47" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H47" t="s">
+        <v>52</v>
+      </c>
+      <c r="I47" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D48" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E48">
         <v>44.460168000000003</v>
@@ -2699,21 +3940,27 @@
         <v>26.099875000000001</v>
       </c>
       <c r="G48" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>52</v>
+      </c>
+      <c r="I48" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D49" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E49">
         <v>44.462114</v>
@@ -2722,21 +3969,27 @@
         <v>26.072040000000001</v>
       </c>
       <c r="G49" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H49" t="s">
+        <v>52</v>
+      </c>
+      <c r="I49" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B50" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D50" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E50">
         <v>44.425083000000001</v>
@@ -2745,21 +3998,27 @@
         <v>26.165904999999999</v>
       </c>
       <c r="G50" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H50" t="s">
+        <v>52</v>
+      </c>
+      <c r="I50" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B51" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D51" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E51">
         <v>44.414600999999998</v>
@@ -2768,21 +4027,27 @@
         <v>26.104959999999998</v>
       </c>
       <c r="G51" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>52</v>
+      </c>
+      <c r="I51" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B52" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E52">
         <v>44.444175999999999</v>
@@ -2791,21 +4056,27 @@
         <v>26.096990999999999</v>
       </c>
       <c r="G52" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H52" t="s">
+        <v>52</v>
+      </c>
+      <c r="I52" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B53" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D53" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E53">
         <v>44.461148999999999</v>
@@ -2816,19 +4087,25 @@
       <c r="G53" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H53" t="s">
+        <v>52</v>
+      </c>
+      <c r="I53" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B54" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C54" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D54" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E54">
         <v>43.908444000000003</v>
@@ -2837,21 +4114,27 @@
         <v>25.971115999999999</v>
       </c>
       <c r="G54" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H54" t="s">
+        <v>52</v>
+      </c>
+      <c r="I54" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B55" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C55" t="s">
         <v>2</v>
       </c>
       <c r="D55" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E55">
         <v>45.749707800000003</v>
@@ -2860,21 +4143,27 @@
         <v>21.207920000000001</v>
       </c>
       <c r="G55" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H55" t="s">
+        <v>52</v>
+      </c>
+      <c r="I55" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B56" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D56" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E56">
         <v>44.433197</v>
@@ -2883,21 +4172,27 @@
         <v>26.120038999999998</v>
       </c>
       <c r="G56" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H56" t="s">
+        <v>52</v>
+      </c>
+      <c r="I56" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B57" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C57" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D57" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E57">
         <v>46.774342099999998</v>
@@ -2906,21 +4201,27 @@
         <v>23.592142899999999</v>
       </c>
       <c r="G57" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H57" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B58" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D58" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E58">
         <v>44.452336000000003</v>
@@ -2929,21 +4230,27 @@
         <v>26.081724999999999</v>
       </c>
       <c r="G58" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H58" t="s">
+        <v>52</v>
+      </c>
+      <c r="I58" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B59" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D59" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E59">
         <v>44.940671000000002</v>
@@ -2952,21 +4259,27 @@
         <v>26.024774000000001</v>
       </c>
       <c r="G59" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H59" t="s">
+        <v>52</v>
+      </c>
+      <c r="I59" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B60" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C60" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D60" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E60">
         <v>47.7915086</v>
@@ -2975,21 +4288,27 @@
         <v>22.873615699999998</v>
       </c>
       <c r="G60" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H60" t="s">
+        <v>52</v>
+      </c>
+      <c r="I60" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B61" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D61" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E61">
         <v>44.562461900000002</v>
@@ -2998,21 +4317,27 @@
         <v>27.3761616</v>
       </c>
       <c r="G61" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H61" t="s">
+        <v>52</v>
+      </c>
+      <c r="I61" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B62" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C62" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D62" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E62">
         <v>45.955598299999998</v>
@@ -3021,21 +4346,27 @@
         <v>23.577897499999999</v>
       </c>
       <c r="G62" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H62" t="s">
+        <v>52</v>
+      </c>
+      <c r="I62" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B63" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C63" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D63" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E63">
         <v>44.560994000000001</v>
@@ -3044,21 +4375,27 @@
         <v>27.347062999999999</v>
       </c>
       <c r="G63" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H63" t="s">
+        <v>52</v>
+      </c>
+      <c r="I63" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C64" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D64" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E64">
         <v>47.791797000000003</v>
@@ -3067,21 +4404,27 @@
         <v>22.873833099999999</v>
       </c>
       <c r="G64" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H64" t="s">
+        <v>52</v>
+      </c>
+      <c r="I64" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B65" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D65" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E65">
         <v>45.686609799999999</v>
@@ -3090,21 +4433,27 @@
         <v>21.9061089</v>
       </c>
       <c r="G65" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H65" t="s">
+        <v>52</v>
+      </c>
+      <c r="I65" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B66" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C66" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D66" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E66">
         <v>45.8824015</v>
@@ -3113,21 +4462,27 @@
         <v>22.904662900000002</v>
       </c>
       <c r="G66" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H66" t="s">
+        <v>52</v>
+      </c>
+      <c r="I66" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B67" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C67" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D67" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E67">
         <v>45.6425755</v>
@@ -3136,21 +4491,27 @@
         <v>25.591038399999999</v>
       </c>
       <c r="G67" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H67" t="s">
+        <v>52</v>
+      </c>
+      <c r="I67" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B68" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C68" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D68" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E68">
         <v>46.181379</v>
@@ -3159,21 +4520,27 @@
         <v>21.309062999999998</v>
       </c>
       <c r="G68" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H68" t="s">
+        <v>52</v>
+      </c>
+      <c r="I68" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C69" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D69" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E69">
         <v>47.6514904</v>
@@ -3182,21 +4549,27 @@
         <v>23.569611999999999</v>
       </c>
       <c r="G69" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H69" t="s">
+        <v>52</v>
+      </c>
+      <c r="I69" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D70" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E70">
         <v>44.459257999999998</v>
@@ -3205,21 +4578,27 @@
         <v>26.127396000000001</v>
       </c>
       <c r="G70" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H70" t="s">
+        <v>52</v>
+      </c>
+      <c r="I70" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B71" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E71">
         <v>44.433540000000001</v>
@@ -3228,21 +4607,27 @@
         <v>26.036090000000002</v>
       </c>
       <c r="G71" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H71" t="s">
+        <v>52</v>
+      </c>
+      <c r="I71" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C72" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D72" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E72">
         <v>45.865007499999997</v>
@@ -3251,21 +4636,27 @@
         <v>25.787200800000001</v>
       </c>
       <c r="G72" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H72" t="s">
+        <v>52</v>
+      </c>
+      <c r="I72" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B73" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D73" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E73">
         <v>44.483987999999997</v>
@@ -3274,21 +4665,27 @@
         <v>26.096625</v>
       </c>
       <c r="G73" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H73" t="s">
+        <v>52</v>
+      </c>
+      <c r="I73" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B74" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D74" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E74">
         <v>44.416189000000003</v>
@@ -3297,21 +4694,27 @@
         <v>26.176217999999999</v>
       </c>
       <c r="G74" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H74" t="s">
+        <v>52</v>
+      </c>
+      <c r="I74" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C75" t="s">
         <v>2</v>
       </c>
       <c r="D75" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E75">
         <v>45.703533999999998</v>
@@ -3320,21 +4723,27 @@
         <v>21.190546000000001</v>
       </c>
       <c r="G75" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H75" t="s">
+        <v>52</v>
+      </c>
+      <c r="I75" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B76" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D76" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E76">
         <v>44.486930999999998</v>
@@ -3343,21 +4752,27 @@
         <v>26.037979</v>
       </c>
       <c r="G76" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H76" t="s">
+        <v>52</v>
+      </c>
+      <c r="I76" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B77" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D77" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E77">
         <v>44.393357000000002</v>
@@ -3366,21 +4781,27 @@
         <v>26.109500000000001</v>
       </c>
       <c r="G77" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H77" t="s">
+        <v>52</v>
+      </c>
+      <c r="I77" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B78" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C78" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D78" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E78">
         <v>47.170394100000003</v>
@@ -3389,21 +4810,27 @@
         <v>27.564361300000002</v>
       </c>
       <c r="G78" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H78" t="s">
+        <v>52</v>
+      </c>
+      <c r="I78" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
+        <v>238</v>
+      </c>
+      <c r="B79" t="s">
+        <v>239</v>
+      </c>
+      <c r="C79" t="s">
         <v>236</v>
       </c>
-      <c r="B79" t="s">
-        <v>237</v>
-      </c>
-      <c r="C79" t="s">
-        <v>234</v>
-      </c>
       <c r="D79" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E79">
         <v>47.163700599999999</v>
@@ -3412,21 +4839,27 @@
         <v>27.591467699999999</v>
       </c>
       <c r="G79" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H79" t="s">
+        <v>52</v>
+      </c>
+      <c r="I79" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B80" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C80" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D80" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E80">
         <v>44.203690100000003</v>
@@ -3435,21 +4868,27 @@
         <v>28.6486163</v>
       </c>
       <c r="G80" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H80" t="s">
+        <v>52</v>
+      </c>
+      <c r="I80" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B81" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D81" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E81">
         <v>44.438642000000002</v>
@@ -3458,21 +4897,27 @@
         <v>26.104002000000001</v>
       </c>
       <c r="G81" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H81" t="s">
+        <v>52</v>
+      </c>
+      <c r="I81" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B82" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C82" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D82" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E82">
         <v>45.6582857</v>
@@ -3481,21 +4926,27 @@
         <v>25.596930100000002</v>
       </c>
       <c r="G82" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H82" t="s">
+        <v>52</v>
+      </c>
+      <c r="I82" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B83" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C83" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D83" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E83">
         <v>45.643102599999999</v>
@@ -3504,21 +4955,27 @@
         <v>25.596314700000001</v>
       </c>
       <c r="G83" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H83" t="s">
+        <v>52</v>
+      </c>
+      <c r="I83" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B84" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D84" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E84">
         <v>44.466068999999997</v>
@@ -3527,21 +4984,27 @@
         <v>26.06765</v>
       </c>
       <c r="G84" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H84" t="s">
+        <v>52</v>
+      </c>
+      <c r="I84" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B85" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D85" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E85">
         <v>44.430190000000003</v>
@@ -3550,21 +5013,27 @@
         <v>26.165937</v>
       </c>
       <c r="G85" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H85" t="s">
+        <v>52</v>
+      </c>
+      <c r="I85" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B86" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C86" t="s">
         <v>2</v>
       </c>
       <c r="D86" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E86">
         <v>45.752189100000002</v>
@@ -3573,21 +5042,27 @@
         <v>21.225358</v>
       </c>
       <c r="G86" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H86" t="s">
+        <v>52</v>
+      </c>
+      <c r="I86" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B87" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D87" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E87">
         <v>44.484184999999997</v>
@@ -3596,21 +5071,27 @@
         <v>26.092829999999999</v>
       </c>
       <c r="G87" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H87" t="s">
+        <v>52</v>
+      </c>
+      <c r="I87" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B88" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C88" t="s">
         <v>2</v>
       </c>
       <c r="D88" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E88">
         <v>45.780524800000002</v>
@@ -3619,21 +5100,27 @@
         <v>21.220014500000001</v>
       </c>
       <c r="G88" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H88" t="s">
+        <v>52</v>
+      </c>
+      <c r="I88" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B89" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D89" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E89">
         <v>44.456117999999996</v>
@@ -3642,21 +5129,27 @@
         <v>26.097242000000001</v>
       </c>
       <c r="G89" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H89" t="s">
+        <v>52</v>
+      </c>
+      <c r="I89" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B90" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C90" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D90" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E90">
         <v>47.159374800000002</v>
@@ -3665,21 +5158,27 @@
         <v>27.611538400000001</v>
       </c>
       <c r="G90" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H90" t="s">
+        <v>52</v>
+      </c>
+      <c r="I90" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B91" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C91" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D91" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E91">
         <v>47.645679000000001</v>
@@ -3688,21 +5187,27 @@
         <v>26.249789</v>
       </c>
       <c r="G91" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H91" t="s">
+        <v>52</v>
+      </c>
+      <c r="I91" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B92" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C92" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D92" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="E92">
         <v>44.126835800000002</v>
@@ -3711,21 +5216,27 @@
         <v>28.615251700000002</v>
       </c>
       <c r="G92" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H92" t="s">
+        <v>52</v>
+      </c>
+      <c r="I92" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B93" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C93" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D93" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E93">
         <v>46.765711500000002</v>
@@ -3734,21 +5245,27 @@
         <v>23.551805099999999</v>
       </c>
       <c r="G93" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H93" t="s">
+        <v>52</v>
+      </c>
+      <c r="I93" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B94" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C94" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D94" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E94">
         <v>47.799874000000003</v>
@@ -3757,21 +5274,27 @@
         <v>22.874769000000001</v>
       </c>
       <c r="G94" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H94" t="s">
+        <v>52</v>
+      </c>
+      <c r="I94" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B95" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C95" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D95" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E95">
         <v>47.144554589999998</v>
@@ -3780,21 +5303,27 @@
         <v>27.607835000000001</v>
       </c>
       <c r="G95" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H95" t="s">
+        <v>52</v>
+      </c>
+      <c r="I95" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B96" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D96" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E96">
         <v>44.509180000000001</v>
@@ -3803,21 +5332,27 @@
         <v>26.089096000000001</v>
       </c>
       <c r="G96" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H96" t="s">
+        <v>52</v>
+      </c>
+      <c r="I96" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B97" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D97" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E97">
         <v>45.639418999999997</v>
@@ -3826,21 +5361,27 @@
         <v>25.622464000000001</v>
       </c>
       <c r="G97" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H97" t="s">
+        <v>52</v>
+      </c>
+      <c r="I97" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B98" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C98" t="s">
         <v>2</v>
       </c>
       <c r="D98" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E98">
         <v>45.731428000000001</v>
@@ -3851,19 +5392,25 @@
       <c r="G98" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H98" t="s">
+        <v>52</v>
+      </c>
+      <c r="I98" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B99" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C99" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D99" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E99">
         <v>46.755287699999997</v>
@@ -3872,21 +5419,27 @@
         <v>23.5578243</v>
       </c>
       <c r="G99" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H99" t="s">
+        <v>52</v>
+      </c>
+      <c r="I99" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B100" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
       </c>
       <c r="D100" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E100">
         <v>45.704279999999997</v>
@@ -3895,21 +5448,27 @@
         <v>21.2166222</v>
       </c>
       <c r="G100" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H100" t="s">
+        <v>52</v>
+      </c>
+      <c r="I100" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B101" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D101" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E101">
         <v>44.480573999999997</v>
@@ -3918,21 +5477,27 @@
         <v>26.115947999999999</v>
       </c>
       <c r="G101" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H101" t="s">
+        <v>52</v>
+      </c>
+      <c r="I101" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B102" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D102" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E102">
         <v>44.428426999999999</v>
@@ -3941,21 +5506,27 @@
         <v>26.105991</v>
       </c>
       <c r="G102" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H102" t="s">
+        <v>52</v>
+      </c>
+      <c r="I102" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B103" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C103" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D103" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E103">
         <v>44.871692000000003</v>
@@ -3964,21 +5535,27 @@
         <v>24.851455000000001</v>
       </c>
       <c r="G103" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H103" t="s">
+        <v>52</v>
+      </c>
+      <c r="I103" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B104" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D104" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E104">
         <v>44.458343999999997</v>
@@ -3987,21 +5564,27 @@
         <v>26.078393999999999</v>
       </c>
       <c r="G104" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H104" t="s">
+        <v>52</v>
+      </c>
+      <c r="I104" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B105" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C105" t="s">
         <v>2</v>
       </c>
       <c r="D105" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="E105">
         <v>45.740093999999999</v>
@@ -4010,21 +5593,27 @@
         <v>21.225671999999999</v>
       </c>
       <c r="G105" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H105" t="s">
+        <v>52</v>
+      </c>
+      <c r="I105" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B106" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D106" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="E106">
         <v>44.484900000000003</v>
@@ -4033,21 +5622,27 @@
         <v>26.033277999999999</v>
       </c>
       <c r="G106" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H106" t="s">
+        <v>52</v>
+      </c>
+      <c r="I106" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B107" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D107" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E107">
         <v>44.491214999999997</v>
@@ -4056,21 +5651,27 @@
         <v>26.079575999999999</v>
       </c>
       <c r="G107" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H107" t="s">
+        <v>52</v>
+      </c>
+      <c r="I107" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B108" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C108" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D108" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E108">
         <v>44.926490999999999</v>
@@ -4079,21 +5680,27 @@
         <v>25.463746</v>
       </c>
       <c r="G108" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H108" t="s">
+        <v>52</v>
+      </c>
+      <c r="I108" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B109" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D109" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E109">
         <v>44.439456</v>
@@ -4102,21 +5709,27 @@
         <v>26.027477999999999</v>
       </c>
       <c r="G109" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H109" t="s">
+        <v>52</v>
+      </c>
+      <c r="I109" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B110" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C110" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D110" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E110">
         <v>44.637483000000003</v>
@@ -4125,21 +5738,27 @@
         <v>22.680416000000001</v>
       </c>
       <c r="G110" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H110" t="s">
+        <v>52</v>
+      </c>
+      <c r="I110" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B111" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D111" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E111">
         <v>44.427948000000001</v>
@@ -4148,21 +5767,27 @@
         <v>26.148299999999999</v>
       </c>
       <c r="G111" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H111" t="s">
+        <v>52</v>
+      </c>
+      <c r="I111" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B112" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C112" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="D112" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E112">
         <v>44.601540999999997</v>
@@ -4171,21 +5796,27 @@
         <v>26.070585999999999</v>
       </c>
       <c r="G112" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H112" t="s">
+        <v>52</v>
+      </c>
+      <c r="I112" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B113" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D113" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E113">
         <v>44.420634999999997</v>
@@ -4194,21 +5825,27 @@
         <v>26.164988999999998</v>
       </c>
       <c r="G113" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H113" t="s">
+        <v>52</v>
+      </c>
+      <c r="I113" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B114" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C114" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D114" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E114">
         <v>47.640667000000001</v>
@@ -4217,21 +5854,27 @@
         <v>22.889037999999999</v>
       </c>
       <c r="G114" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H114" t="s">
+        <v>52</v>
+      </c>
+      <c r="I114" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B115" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C115" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D115" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E115">
         <v>46.766421999999999</v>
@@ -4240,21 +5883,27 @@
         <v>23.549433000000001</v>
       </c>
       <c r="G115" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H115" t="s">
+        <v>52</v>
+      </c>
+      <c r="I115" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B116" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C116" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D116" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E116">
         <v>45.117908</v>
@@ -4265,19 +5914,25 @@
       <c r="G116" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H116" t="s">
+        <v>52</v>
+      </c>
+      <c r="I116" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B117" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D117" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E117">
         <v>44.452694999999999</v>
@@ -4286,21 +5941,27 @@
         <v>26.111875999999999</v>
       </c>
       <c r="G117" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H117" t="s">
+        <v>52</v>
+      </c>
+      <c r="I117" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B118" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D118" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E118">
         <v>44.451819</v>
@@ -4309,21 +5970,27 @@
         <v>26.084181999999998</v>
       </c>
       <c r="G118" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H118" t="s">
+        <v>52</v>
+      </c>
+      <c r="I118" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B119" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D119" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E119">
         <v>44.474471000000001</v>
@@ -4332,21 +5999,27 @@
         <v>26.068762</v>
       </c>
       <c r="G119" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H119" t="s">
+        <v>52</v>
+      </c>
+      <c r="I119" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B120" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C120" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D120" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E120">
         <v>45.101947000000003</v>
@@ -4355,21 +6028,27 @@
         <v>24.365331999999999</v>
       </c>
       <c r="G120" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H120" t="s">
+        <v>52</v>
+      </c>
+      <c r="I120" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B121" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D121" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E121">
         <v>44.461588999999996</v>
@@ -4378,21 +6057,27 @@
         <v>26.073038</v>
       </c>
       <c r="G121" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H121" t="s">
+        <v>52</v>
+      </c>
+      <c r="I121" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B122" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D122" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E122">
         <v>44.432416000000003</v>
@@ -4401,21 +6086,27 @@
         <v>26.071452000000001</v>
       </c>
       <c r="G122" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H122" t="s">
+        <v>52</v>
+      </c>
+      <c r="I122" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B123" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D123" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E123">
         <v>44.440389000000003</v>
@@ -4424,21 +6115,27 @@
         <v>26.080891000000001</v>
       </c>
       <c r="G123" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H123" t="s">
+        <v>52</v>
+      </c>
+      <c r="I123" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B124" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D124" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E124">
         <v>44.494776000000002</v>
@@ -4447,21 +6144,27 @@
         <v>26.014659000000002</v>
       </c>
       <c r="G124" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H124" t="s">
+        <v>52</v>
+      </c>
+      <c r="I124" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B125" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C125" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D125" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E125">
         <v>44.871653999999999</v>
@@ -4470,21 +6173,27 @@
         <v>24.847249000000001</v>
       </c>
       <c r="G125" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H125" t="s">
+        <v>52</v>
+      </c>
+      <c r="I125" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B126" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D126" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E126">
         <v>44.434429000000002</v>
@@ -4493,21 +6202,27 @@
         <v>26.028086999999999</v>
       </c>
       <c r="G126" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H126" t="s">
+        <v>52</v>
+      </c>
+      <c r="I126" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B127" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C127" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D127" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E127">
         <v>45.686644999999999</v>
@@ -4516,21 +6231,27 @@
         <v>21.907765999999999</v>
       </c>
       <c r="G127" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H127" t="s">
+        <v>52</v>
+      </c>
+      <c r="I127" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B128" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C128" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D128" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E128">
         <v>45.66563</v>
@@ -4539,21 +6260,27 @@
         <v>25.599231</v>
       </c>
       <c r="G128" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H128" t="s">
+        <v>52</v>
+      </c>
+      <c r="I128" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B129" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C129" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D129" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E129">
         <v>44.551228999999999</v>
@@ -4562,21 +6289,27 @@
         <v>26.072780000000002</v>
       </c>
       <c r="G129" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H129" t="s">
+        <v>52</v>
+      </c>
+      <c r="I129" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B130" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C130" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D130" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E130">
         <v>44.871581999999997</v>
@@ -4585,21 +6318,27 @@
         <v>24.843973999999999</v>
       </c>
       <c r="G130" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H130" t="s">
+        <v>52</v>
+      </c>
+      <c r="I130" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B131" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D131" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E131">
         <v>44.437975999999999</v>
@@ -4608,21 +6347,27 @@
         <v>26.135684999999999</v>
       </c>
       <c r="G131" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H131" t="s">
+        <v>52</v>
+      </c>
+      <c r="I131" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B132" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C132" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D132" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="E132">
         <v>44.844670000000001</v>
@@ -4631,21 +6376,27 @@
         <v>24.881067000000002</v>
       </c>
       <c r="G132" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H132" t="s">
+        <v>52</v>
+      </c>
+      <c r="I132" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B133" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C133" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D133" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E133">
         <v>43.891616999999997</v>
@@ -4654,21 +6405,27 @@
         <v>25.967739999999999</v>
       </c>
       <c r="G133" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H133" t="s">
+        <v>52</v>
+      </c>
+      <c r="I133" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B134" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C134" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D134" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="E134">
         <v>44.943952000000003</v>
@@ -4677,21 +6434,27 @@
         <v>26.021298000000002</v>
       </c>
       <c r="G134" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H134" t="s">
+        <v>52</v>
+      </c>
+      <c r="I134" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B135" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C135" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D135" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E135">
         <v>45.092314000000002</v>
@@ -4700,21 +6463,27 @@
         <v>24.371713</v>
       </c>
       <c r="G135" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H135" t="s">
+        <v>52</v>
+      </c>
+      <c r="I135" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B136" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C136" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D136" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E136">
         <v>44.319271000000001</v>
@@ -4723,21 +6492,27 @@
         <v>28.603801000000001</v>
       </c>
       <c r="G136" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H136" t="s">
+        <v>52</v>
+      </c>
+      <c r="I136" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B137" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D137" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E137">
         <v>44.479779999999998</v>
@@ -4746,21 +6521,27 @@
         <v>26.100037</v>
       </c>
       <c r="G137" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H137" t="s">
+        <v>52</v>
+      </c>
+      <c r="I137" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B138" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D138" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="E138">
         <v>44.420279000000001</v>
@@ -4769,21 +6550,27 @@
         <v>26.018508000000001</v>
       </c>
       <c r="G138" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H138" t="s">
+        <v>52</v>
+      </c>
+      <c r="I138" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B139" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C139" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D139" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E139">
         <v>44.562693000000003</v>
@@ -4792,21 +6579,27 @@
         <v>27.361305000000002</v>
       </c>
       <c r="G139" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H139" t="s">
+        <v>52</v>
+      </c>
+      <c r="I139" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B140" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D140" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E140">
         <v>44.488191</v>
@@ -4815,21 +6608,27 @@
         <v>26.051618999999999</v>
       </c>
       <c r="G140" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H140" t="s">
+        <v>52</v>
+      </c>
+      <c r="I140" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B141" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D141" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E141">
         <v>44.516531999999998</v>
@@ -4838,21 +6637,27 @@
         <v>26.013863000000001</v>
       </c>
       <c r="G141" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H141" t="s">
+        <v>52</v>
+      </c>
+      <c r="I141" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B142" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D142" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E142">
         <v>44.399574000000001</v>
@@ -4861,44 +6666,56 @@
         <v>26.043849999999999</v>
       </c>
       <c r="G142" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H142" t="s">
+        <v>52</v>
+      </c>
+      <c r="I142" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B143" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C143" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D143" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E143">
         <v>45.426881999999999</v>
       </c>
-      <c r="F143" t="s">
-        <v>406</v>
+      <c r="F143">
+        <v>28.022690000000001</v>
       </c>
       <c r="G143" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H143" t="s">
+        <v>52</v>
+      </c>
+      <c r="I143" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B144" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C144" t="s">
+        <v>410</v>
+      </c>
+      <c r="D144" t="s">
         <v>409</v>
-      </c>
-      <c r="D144" t="s">
-        <v>408</v>
       </c>
       <c r="E144">
         <v>44.199156000000002</v>
@@ -4907,21 +6724,27 @@
         <v>27.330266999999999</v>
       </c>
       <c r="G144" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H144" t="s">
+        <v>52</v>
+      </c>
+      <c r="I144" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B145" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D145" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E145">
         <v>44.465406000000002</v>
@@ -4930,21 +6753,27 @@
         <v>26.066955</v>
       </c>
       <c r="G145" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H145" t="s">
+        <v>52</v>
+      </c>
+      <c r="I145" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B146" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C146" t="s">
+        <v>415</v>
+      </c>
+      <c r="D146" t="s">
         <v>414</v>
-      </c>
-      <c r="D146" t="s">
-        <v>413</v>
       </c>
       <c r="E146">
         <v>44.688599000000004</v>
@@ -4953,30 +6782,3290 @@
         <v>26.146923999999999</v>
       </c>
       <c r="G146" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="H146" t="s">
+        <v>52</v>
+      </c>
+      <c r="I146" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B147" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D147" t="s">
         <v>417</v>
       </c>
       <c r="E147">
-        <v>44.480876000000002</v>
+        <v>44.410545509999999</v>
       </c>
       <c r="F147">
-        <v>26.117827999999999</v>
+        <v>26.172862940000002</v>
       </c>
       <c r="G147" t="s">
-        <v>9</v>
+        <v>418</v>
+      </c>
+      <c r="H147" t="s">
+        <v>419</v>
+      </c>
+      <c r="I147" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>420</v>
+      </c>
+      <c r="B148" t="s">
+        <v>421</v>
+      </c>
+      <c r="C148" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" t="s">
+        <v>421</v>
+      </c>
+      <c r="E148">
+        <v>44.469732530000002</v>
+      </c>
+      <c r="F148">
+        <v>26.051534360000002</v>
+      </c>
+      <c r="G148" t="s">
+        <v>418</v>
+      </c>
+      <c r="H148" t="s">
+        <v>422</v>
+      </c>
+      <c r="I148" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>423</v>
+      </c>
+      <c r="B149" t="s">
+        <v>424</v>
+      </c>
+      <c r="C149" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" t="s">
+        <v>424</v>
+      </c>
+      <c r="E149">
+        <v>44.413944479999998</v>
+      </c>
+      <c r="F149">
+        <v>26.061537059999999</v>
+      </c>
+      <c r="G149" t="s">
+        <v>418</v>
+      </c>
+      <c r="H149" t="s">
+        <v>425</v>
+      </c>
+      <c r="I149" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>426</v>
+      </c>
+      <c r="B150" t="s">
+        <v>427</v>
+      </c>
+      <c r="C150" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" t="s">
+        <v>427</v>
+      </c>
+      <c r="E150">
+        <v>44.40954773</v>
+      </c>
+      <c r="F150">
+        <v>26.14077936</v>
+      </c>
+      <c r="G150" t="s">
+        <v>418</v>
+      </c>
+      <c r="H150" t="s">
+        <v>428</v>
+      </c>
+      <c r="I150" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>429</v>
+      </c>
+      <c r="B151" t="s">
+        <v>430</v>
+      </c>
+      <c r="C151" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" t="s">
+        <v>430</v>
+      </c>
+      <c r="E151">
+        <v>44.433632430000003</v>
+      </c>
+      <c r="F151">
+        <v>26.18626222</v>
+      </c>
+      <c r="G151" t="s">
+        <v>418</v>
+      </c>
+      <c r="H151" t="s">
+        <v>431</v>
+      </c>
+      <c r="I151" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>432</v>
+      </c>
+      <c r="B152" t="s">
+        <v>433</v>
+      </c>
+      <c r="C152" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" t="s">
+        <v>433</v>
+      </c>
+      <c r="E152">
+        <v>44.442492909999999</v>
+      </c>
+      <c r="F152">
+        <v>26.142255949999999</v>
+      </c>
+      <c r="G152" t="s">
+        <v>418</v>
+      </c>
+      <c r="H152" t="s">
+        <v>434</v>
+      </c>
+      <c r="I152" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>435</v>
+      </c>
+      <c r="B153" t="s">
+        <v>436</v>
+      </c>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>436</v>
+      </c>
+      <c r="E153">
+        <v>44.44336989</v>
+      </c>
+      <c r="F153">
+        <v>26.148639459999998</v>
+      </c>
+      <c r="G153" t="s">
+        <v>418</v>
+      </c>
+      <c r="H153" t="s">
+        <v>437</v>
+      </c>
+      <c r="I153" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>438</v>
+      </c>
+      <c r="B154" t="s">
+        <v>439</v>
+      </c>
+      <c r="C154" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" t="s">
+        <v>439</v>
+      </c>
+      <c r="E154">
+        <v>44.493770339999998</v>
+      </c>
+      <c r="F154">
+        <v>26.083932839999999</v>
+      </c>
+      <c r="G154" t="s">
+        <v>418</v>
+      </c>
+      <c r="H154" t="s">
+        <v>440</v>
+      </c>
+      <c r="I154" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>441</v>
+      </c>
+      <c r="B155" t="s">
+        <v>442</v>
+      </c>
+      <c r="C155" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" t="s">
+        <v>442</v>
+      </c>
+      <c r="E155">
+        <v>44.380220749999999</v>
+      </c>
+      <c r="F155">
+        <v>26.099811240000001</v>
+      </c>
+      <c r="G155" t="s">
+        <v>418</v>
+      </c>
+      <c r="H155" t="s">
+        <v>443</v>
+      </c>
+      <c r="I155" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>444</v>
+      </c>
+      <c r="B156" t="s">
+        <v>445</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" t="s">
+        <v>445</v>
+      </c>
+      <c r="E156">
+        <v>44.385313549999999</v>
+      </c>
+      <c r="F156">
+        <v>26.121192449999999</v>
+      </c>
+      <c r="G156" t="s">
+        <v>418</v>
+      </c>
+      <c r="H156" t="s">
+        <v>446</v>
+      </c>
+      <c r="I156" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>447</v>
+      </c>
+      <c r="B157" t="s">
+        <v>448</v>
+      </c>
+      <c r="C157" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" t="s">
+        <v>448</v>
+      </c>
+      <c r="E157">
+        <v>44.390781850000003</v>
+      </c>
+      <c r="F157">
+        <v>26.12773979</v>
+      </c>
+      <c r="G157" t="s">
+        <v>418</v>
+      </c>
+      <c r="H157" t="s">
+        <v>449</v>
+      </c>
+      <c r="I157" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>450</v>
+      </c>
+      <c r="B158" t="s">
+        <v>451</v>
+      </c>
+      <c r="C158" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" t="s">
+        <v>451</v>
+      </c>
+      <c r="E158">
+        <v>44.390393490000001</v>
+      </c>
+      <c r="F158">
+        <v>26.116170780000001</v>
+      </c>
+      <c r="G158" t="s">
+        <v>418</v>
+      </c>
+      <c r="H158" t="s">
+        <v>452</v>
+      </c>
+      <c r="I158" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>453</v>
+      </c>
+      <c r="B159" t="s">
+        <v>454</v>
+      </c>
+      <c r="C159" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" t="s">
+        <v>454</v>
+      </c>
+      <c r="E159">
+        <v>44.394072850000001</v>
+      </c>
+      <c r="F159">
+        <v>26.109436410000001</v>
+      </c>
+      <c r="G159" t="s">
+        <v>418</v>
+      </c>
+      <c r="H159" t="s">
+        <v>455</v>
+      </c>
+      <c r="I159" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>456</v>
+      </c>
+      <c r="B160" t="s">
+        <v>457</v>
+      </c>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" t="s">
+        <v>457</v>
+      </c>
+      <c r="E160">
+        <v>44.443467419999998</v>
+      </c>
+      <c r="F160">
+        <v>26.0964563</v>
+      </c>
+      <c r="G160" t="s">
+        <v>418</v>
+      </c>
+      <c r="H160" t="s">
+        <v>458</v>
+      </c>
+      <c r="I160" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>459</v>
+      </c>
+      <c r="B161" t="s">
+        <v>460</v>
+      </c>
+      <c r="C161" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" t="s">
+        <v>460</v>
+      </c>
+      <c r="E161">
+        <v>44.439981539999998</v>
+      </c>
+      <c r="F161">
+        <v>26.092605880000001</v>
+      </c>
+      <c r="G161" t="s">
+        <v>418</v>
+      </c>
+      <c r="H161" t="s">
+        <v>461</v>
+      </c>
+      <c r="I161" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>462</v>
+      </c>
+      <c r="B162" t="s">
+        <v>463</v>
+      </c>
+      <c r="C162" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" t="s">
+        <v>463</v>
+      </c>
+      <c r="E162">
+        <v>44.440554519999999</v>
+      </c>
+      <c r="F162">
+        <v>26.100112759999998</v>
+      </c>
+      <c r="G162" t="s">
+        <v>418</v>
+      </c>
+      <c r="H162" t="s">
+        <v>464</v>
+      </c>
+      <c r="I162" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>465</v>
+      </c>
+      <c r="B163" t="s">
+        <v>466</v>
+      </c>
+      <c r="C163" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" t="s">
+        <v>466</v>
+      </c>
+      <c r="E163">
+        <v>44.462397369999998</v>
+      </c>
+      <c r="F163">
+        <v>26.142749819999999</v>
+      </c>
+      <c r="G163" t="s">
+        <v>418</v>
+      </c>
+      <c r="H163" t="s">
+        <v>467</v>
+      </c>
+      <c r="I163" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>468</v>
+      </c>
+      <c r="B164" t="s">
+        <v>469</v>
+      </c>
+      <c r="C164" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" t="s">
+        <v>469</v>
+      </c>
+      <c r="E164">
+        <v>44.466655660000001</v>
+      </c>
+      <c r="F164">
+        <v>26.13789053</v>
+      </c>
+      <c r="G164" t="s">
+        <v>418</v>
+      </c>
+      <c r="H164" t="s">
+        <v>470</v>
+      </c>
+      <c r="I164" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>471</v>
+      </c>
+      <c r="B165" t="s">
+        <v>472</v>
+      </c>
+      <c r="C165" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" t="s">
+        <v>472</v>
+      </c>
+      <c r="E165">
+        <v>44.458055209999998</v>
+      </c>
+      <c r="F165">
+        <v>26.05268787</v>
+      </c>
+      <c r="G165" t="s">
+        <v>418</v>
+      </c>
+      <c r="H165" t="s">
+        <v>473</v>
+      </c>
+      <c r="I165" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>474</v>
+      </c>
+      <c r="B166" t="s">
+        <v>472</v>
+      </c>
+      <c r="C166" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" t="s">
+        <v>472</v>
+      </c>
+      <c r="E166">
+        <v>44.453870330000001</v>
+      </c>
+      <c r="F166">
+        <v>26.05151575</v>
+      </c>
+      <c r="G166" t="s">
+        <v>418</v>
+      </c>
+      <c r="H166" t="s">
+        <v>475</v>
+      </c>
+      <c r="I166" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>476</v>
+      </c>
+      <c r="B167" t="s">
+        <v>477</v>
+      </c>
+      <c r="C167" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>477</v>
+      </c>
+      <c r="E167">
+        <v>44.4654515</v>
+      </c>
+      <c r="F167">
+        <v>26.067474310000001</v>
+      </c>
+      <c r="G167" t="s">
+        <v>418</v>
+      </c>
+      <c r="H167" t="s">
+        <v>478</v>
+      </c>
+      <c r="I167" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>479</v>
+      </c>
+      <c r="B168" t="s">
+        <v>480</v>
+      </c>
+      <c r="C168" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" t="s">
+        <v>480</v>
+      </c>
+      <c r="E168">
+        <v>44.460383479999997</v>
+      </c>
+      <c r="F168">
+        <v>26.093951440000001</v>
+      </c>
+      <c r="G168" t="s">
+        <v>418</v>
+      </c>
+      <c r="H168" t="s">
+        <v>481</v>
+      </c>
+      <c r="I168" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>482</v>
+      </c>
+      <c r="B169" t="s">
+        <v>483</v>
+      </c>
+      <c r="C169" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" t="s">
+        <v>484</v>
+      </c>
+      <c r="E169">
+        <v>44.4150396</v>
+      </c>
+      <c r="F169">
+        <v>26.140742370000002</v>
+      </c>
+      <c r="G169" t="s">
+        <v>418</v>
+      </c>
+      <c r="H169" t="s">
+        <v>485</v>
+      </c>
+      <c r="I169" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>486</v>
+      </c>
+      <c r="B170" t="s">
+        <v>487</v>
+      </c>
+      <c r="C170" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" t="s">
+        <v>487</v>
+      </c>
+      <c r="E170">
+        <v>44.414261930000002</v>
+      </c>
+      <c r="F170">
+        <v>26.133056669999998</v>
+      </c>
+      <c r="G170" t="s">
+        <v>418</v>
+      </c>
+      <c r="H170" t="s">
+        <v>488</v>
+      </c>
+      <c r="I170" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>489</v>
+      </c>
+      <c r="B171" t="s">
+        <v>490</v>
+      </c>
+      <c r="C171" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" t="s">
+        <v>490</v>
+      </c>
+      <c r="E171">
+        <v>44.412623869999997</v>
+      </c>
+      <c r="F171">
+        <v>26.021027060000002</v>
+      </c>
+      <c r="G171" t="s">
+        <v>418</v>
+      </c>
+      <c r="H171" t="s">
+        <v>491</v>
+      </c>
+      <c r="I171" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>492</v>
+      </c>
+      <c r="B172" t="s">
+        <v>493</v>
+      </c>
+      <c r="C172" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>493</v>
+      </c>
+      <c r="E172">
+        <v>44.418946419999997</v>
+      </c>
+      <c r="F172">
+        <v>26.043641480000002</v>
+      </c>
+      <c r="G172" t="s">
+        <v>418</v>
+      </c>
+      <c r="H172" t="s">
+        <v>494</v>
+      </c>
+      <c r="I172" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>495</v>
+      </c>
+      <c r="B173" t="s">
+        <v>496</v>
+      </c>
+      <c r="C173" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" t="s">
+        <v>496</v>
+      </c>
+      <c r="E173">
+        <v>44.398188509999997</v>
+      </c>
+      <c r="F173">
+        <v>26.083204559999999</v>
+      </c>
+      <c r="G173" t="s">
+        <v>418</v>
+      </c>
+      <c r="H173" t="s">
+        <v>497</v>
+      </c>
+      <c r="I173" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>498</v>
+      </c>
+      <c r="B174" t="s">
+        <v>499</v>
+      </c>
+      <c r="C174" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" t="s">
+        <v>499</v>
+      </c>
+      <c r="E174">
+        <v>44.462293950000003</v>
+      </c>
+      <c r="F174">
+        <v>26.043072080000002</v>
+      </c>
+      <c r="G174" t="s">
+        <v>418</v>
+      </c>
+      <c r="H174" t="s">
+        <v>500</v>
+      </c>
+      <c r="I174" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>501</v>
+      </c>
+      <c r="B175" t="s">
+        <v>502</v>
+      </c>
+      <c r="C175" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" t="s">
+        <v>502</v>
+      </c>
+      <c r="E175">
+        <v>44.438739650000002</v>
+      </c>
+      <c r="F175">
+        <v>26.0221014</v>
+      </c>
+      <c r="G175" t="s">
+        <v>418</v>
+      </c>
+      <c r="H175" t="s">
+        <v>503</v>
+      </c>
+      <c r="I175" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>504</v>
+      </c>
+      <c r="B176" t="s">
+        <v>505</v>
+      </c>
+      <c r="C176" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" t="s">
+        <v>505</v>
+      </c>
+      <c r="E176">
+        <v>44.438621310000002</v>
+      </c>
+      <c r="F176">
+        <v>26.015148310000001</v>
+      </c>
+      <c r="G176" t="s">
+        <v>418</v>
+      </c>
+      <c r="H176" t="s">
+        <v>506</v>
+      </c>
+      <c r="I176" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>507</v>
+      </c>
+      <c r="B177" t="s">
+        <v>508</v>
+      </c>
+      <c r="C177" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" t="s">
+        <v>508</v>
+      </c>
+      <c r="E177">
+        <v>44.452552590000003</v>
+      </c>
+      <c r="F177">
+        <v>26.118574250000002</v>
+      </c>
+      <c r="G177" t="s">
+        <v>418</v>
+      </c>
+      <c r="H177" t="s">
+        <v>509</v>
+      </c>
+      <c r="I177" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>510</v>
+      </c>
+      <c r="B178" t="s">
+        <v>511</v>
+      </c>
+      <c r="C178" t="s">
+        <v>8</v>
+      </c>
+      <c r="D178" t="s">
+        <v>511</v>
+      </c>
+      <c r="E178">
+        <v>44.441478609999997</v>
+      </c>
+      <c r="F178">
+        <v>26.174607559999998</v>
+      </c>
+      <c r="G178" t="s">
+        <v>418</v>
+      </c>
+      <c r="H178" t="s">
+        <v>512</v>
+      </c>
+      <c r="I178" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>513</v>
+      </c>
+      <c r="B179" t="s">
+        <v>514</v>
+      </c>
+      <c r="C179" t="s">
+        <v>8</v>
+      </c>
+      <c r="D179" t="s">
+        <v>514</v>
+      </c>
+      <c r="E179">
+        <v>44.436493759999998</v>
+      </c>
+      <c r="F179">
+        <v>26.1686297</v>
+      </c>
+      <c r="G179" t="s">
+        <v>418</v>
+      </c>
+      <c r="H179" t="s">
+        <v>515</v>
+      </c>
+      <c r="I179" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>516</v>
+      </c>
+      <c r="B180" t="s">
+        <v>517</v>
+      </c>
+      <c r="C180" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" t="s">
+        <v>517</v>
+      </c>
+      <c r="E180">
+        <v>44.440651979999998</v>
+      </c>
+      <c r="F180">
+        <v>26.07286933</v>
+      </c>
+      <c r="G180" t="s">
+        <v>418</v>
+      </c>
+      <c r="H180" t="s">
+        <v>518</v>
+      </c>
+      <c r="I180" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>519</v>
+      </c>
+      <c r="B181" t="s">
+        <v>520</v>
+      </c>
+      <c r="C181" t="s">
+        <v>8</v>
+      </c>
+      <c r="D181" t="s">
+        <v>520</v>
+      </c>
+      <c r="E181">
+        <v>44.408181589999998</v>
+      </c>
+      <c r="F181">
+        <v>26.067150170000001</v>
+      </c>
+      <c r="G181" t="s">
+        <v>418</v>
+      </c>
+      <c r="H181" t="s">
+        <v>521</v>
+      </c>
+      <c r="I181" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>423</v>
+      </c>
+      <c r="B182" t="s">
+        <v>522</v>
+      </c>
+      <c r="C182" t="s">
+        <v>8</v>
+      </c>
+      <c r="D182" t="s">
+        <v>522</v>
+      </c>
+      <c r="E182">
+        <v>44.413899239999999</v>
+      </c>
+      <c r="F182">
+        <v>26.061689940000001</v>
+      </c>
+      <c r="G182" t="s">
+        <v>418</v>
+      </c>
+      <c r="H182" t="s">
+        <v>425</v>
+      </c>
+      <c r="I182" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>523</v>
+      </c>
+      <c r="B183" t="s">
+        <v>524</v>
+      </c>
+      <c r="C183" t="s">
+        <v>8</v>
+      </c>
+      <c r="D183" t="s">
+        <v>524</v>
+      </c>
+      <c r="E183">
+        <v>44.452426510000002</v>
+      </c>
+      <c r="F183">
+        <v>26.079553709999999</v>
+      </c>
+      <c r="G183" t="s">
+        <v>418</v>
+      </c>
+      <c r="H183" t="s">
+        <v>525</v>
+      </c>
+      <c r="I183" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>526</v>
+      </c>
+      <c r="B184" t="s">
+        <v>527</v>
+      </c>
+      <c r="C184" t="s">
+        <v>8</v>
+      </c>
+      <c r="D184" t="s">
+        <v>527</v>
+      </c>
+      <c r="E184">
+        <v>44.450035759999999</v>
+      </c>
+      <c r="F184">
+        <v>26.070627080000001</v>
+      </c>
+      <c r="G184" t="s">
+        <v>418</v>
+      </c>
+      <c r="H184" t="s">
+        <v>528</v>
+      </c>
+      <c r="I184" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>529</v>
+      </c>
+      <c r="B185" t="s">
+        <v>530</v>
+      </c>
+      <c r="C185" t="s">
+        <v>8</v>
+      </c>
+      <c r="D185" t="s">
+        <v>530</v>
+      </c>
+      <c r="E185">
+        <v>44.452730109999997</v>
+      </c>
+      <c r="F185">
+        <v>26.109762490000001</v>
+      </c>
+      <c r="G185" t="s">
+        <v>418</v>
+      </c>
+      <c r="H185" t="s">
+        <v>531</v>
+      </c>
+      <c r="I185" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>532</v>
+      </c>
+      <c r="B186" t="s">
+        <v>533</v>
+      </c>
+      <c r="C186" t="s">
+        <v>8</v>
+      </c>
+      <c r="D186" t="s">
+        <v>533</v>
+      </c>
+      <c r="E186">
+        <v>44.41438978</v>
+      </c>
+      <c r="F186">
+        <v>26.105467050000001</v>
+      </c>
+      <c r="G186" t="s">
+        <v>418</v>
+      </c>
+      <c r="H186" t="s">
+        <v>534</v>
+      </c>
+      <c r="I186" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>535</v>
+      </c>
+      <c r="B187" t="s">
+        <v>536</v>
+      </c>
+      <c r="C187" t="s">
+        <v>8</v>
+      </c>
+      <c r="D187" t="s">
+        <v>536</v>
+      </c>
+      <c r="E187">
+        <v>44.424233039999997</v>
+      </c>
+      <c r="F187">
+        <v>26.158296579999998</v>
+      </c>
+      <c r="G187" t="s">
+        <v>418</v>
+      </c>
+      <c r="H187" t="s">
+        <v>537</v>
+      </c>
+      <c r="I187" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>538</v>
+      </c>
+      <c r="B188" t="s">
+        <v>539</v>
+      </c>
+      <c r="C188" t="s">
+        <v>8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>539</v>
+      </c>
+      <c r="E188">
+        <v>44.408707640000003</v>
+      </c>
+      <c r="F188">
+        <v>26.170983970000002</v>
+      </c>
+      <c r="G188" t="s">
+        <v>418</v>
+      </c>
+      <c r="H188" t="s">
+        <v>540</v>
+      </c>
+      <c r="I188" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>541</v>
+      </c>
+      <c r="B189" t="s">
+        <v>542</v>
+      </c>
+      <c r="C189" t="s">
+        <v>8</v>
+      </c>
+      <c r="D189" t="s">
+        <v>542</v>
+      </c>
+      <c r="E189">
+        <v>44.428506310000003</v>
+      </c>
+      <c r="F189">
+        <v>26.14787321</v>
+      </c>
+      <c r="G189" t="s">
+        <v>418</v>
+      </c>
+      <c r="H189" t="s">
+        <v>543</v>
+      </c>
+      <c r="I189" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>544</v>
+      </c>
+      <c r="B190" t="s">
+        <v>545</v>
+      </c>
+      <c r="C190" t="s">
+        <v>8</v>
+      </c>
+      <c r="D190" t="s">
+        <v>545</v>
+      </c>
+      <c r="E190">
+        <v>44.413488360000002</v>
+      </c>
+      <c r="F190">
+        <v>26.183916419999999</v>
+      </c>
+      <c r="G190" t="s">
+        <v>418</v>
+      </c>
+      <c r="H190" t="s">
+        <v>546</v>
+      </c>
+      <c r="I190" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>547</v>
+      </c>
+      <c r="B191" t="s">
+        <v>548</v>
+      </c>
+      <c r="C191" t="s">
+        <v>8</v>
+      </c>
+      <c r="D191" t="s">
+        <v>548</v>
+      </c>
+      <c r="E191">
+        <v>44.415550400000001</v>
+      </c>
+      <c r="F191">
+        <v>26.165067669999999</v>
+      </c>
+      <c r="G191" t="s">
+        <v>418</v>
+      </c>
+      <c r="H191" t="s">
+        <v>549</v>
+      </c>
+      <c r="I191" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>550</v>
+      </c>
+      <c r="B192" t="s">
+        <v>551</v>
+      </c>
+      <c r="C192" t="s">
+        <v>8</v>
+      </c>
+      <c r="D192" t="s">
+        <v>551</v>
+      </c>
+      <c r="E192">
+        <v>44.414901020000002</v>
+      </c>
+      <c r="F192">
+        <v>26.175322000000001</v>
+      </c>
+      <c r="G192" t="s">
+        <v>418</v>
+      </c>
+      <c r="H192" t="s">
+        <v>552</v>
+      </c>
+      <c r="I192" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>553</v>
+      </c>
+      <c r="B193" t="s">
+        <v>554</v>
+      </c>
+      <c r="C193" t="s">
+        <v>8</v>
+      </c>
+      <c r="D193" t="s">
+        <v>554</v>
+      </c>
+      <c r="E193">
+        <v>44.424557610000001</v>
+      </c>
+      <c r="F193">
+        <v>26.139872870000001</v>
+      </c>
+      <c r="G193" t="s">
+        <v>418</v>
+      </c>
+      <c r="H193" t="s">
+        <v>555</v>
+      </c>
+      <c r="I193" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>556</v>
+      </c>
+      <c r="B194" t="s">
+        <v>557</v>
+      </c>
+      <c r="C194" t="s">
+        <v>8</v>
+      </c>
+      <c r="D194" t="s">
+        <v>557</v>
+      </c>
+      <c r="E194">
+        <v>44.414224849999997</v>
+      </c>
+      <c r="F194">
+        <v>26.132949780000001</v>
+      </c>
+      <c r="G194" t="s">
+        <v>418</v>
+      </c>
+      <c r="H194" t="s">
+        <v>558</v>
+      </c>
+      <c r="I194" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>559</v>
+      </c>
+      <c r="B195" t="s">
+        <v>560</v>
+      </c>
+      <c r="C195" t="s">
+        <v>561</v>
+      </c>
+      <c r="D195" t="s">
+        <v>560</v>
+      </c>
+      <c r="E195">
+        <v>46.072312959999998</v>
+      </c>
+      <c r="F195">
+        <v>23.58095952</v>
+      </c>
+      <c r="G195" t="s">
+        <v>418</v>
+      </c>
+      <c r="H195" t="s">
+        <v>562</v>
+      </c>
+      <c r="I195" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>563</v>
+      </c>
+      <c r="B196" t="s">
+        <v>564</v>
+      </c>
+      <c r="C196" t="s">
+        <v>561</v>
+      </c>
+      <c r="D196" t="s">
+        <v>564</v>
+      </c>
+      <c r="E196">
+        <v>46.0690922</v>
+      </c>
+      <c r="F196">
+        <v>23.579878789999999</v>
+      </c>
+      <c r="G196" t="s">
+        <v>418</v>
+      </c>
+      <c r="H196" t="s">
+        <v>562</v>
+      </c>
+      <c r="I196" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>565</v>
+      </c>
+      <c r="B197" t="s">
+        <v>566</v>
+      </c>
+      <c r="C197" t="s">
+        <v>78</v>
+      </c>
+      <c r="D197" t="s">
+        <v>566</v>
+      </c>
+      <c r="E197">
+        <v>46.187745720000002</v>
+      </c>
+      <c r="F197">
+        <v>21.326019720000001</v>
+      </c>
+      <c r="G197" t="s">
+        <v>418</v>
+      </c>
+      <c r="H197" t="s">
+        <v>567</v>
+      </c>
+      <c r="I197" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>568</v>
+      </c>
+      <c r="B198" t="s">
+        <v>569</v>
+      </c>
+      <c r="C198" t="s">
+        <v>78</v>
+      </c>
+      <c r="D198" t="s">
+        <v>569</v>
+      </c>
+      <c r="E198">
+        <v>46.166515359999998</v>
+      </c>
+      <c r="F198">
+        <v>21.320692099999999</v>
+      </c>
+      <c r="G198" t="s">
+        <v>418</v>
+      </c>
+      <c r="H198" t="s">
+        <v>570</v>
+      </c>
+      <c r="I198" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>571</v>
+      </c>
+      <c r="B199" t="s">
+        <v>572</v>
+      </c>
+      <c r="C199" t="s">
+        <v>573</v>
+      </c>
+      <c r="D199" t="s">
+        <v>572</v>
+      </c>
+      <c r="E199">
+        <v>46.565732680000004</v>
+      </c>
+      <c r="F199">
+        <v>26.913166589999999</v>
+      </c>
+      <c r="G199" t="s">
+        <v>418</v>
+      </c>
+      <c r="H199" t="s">
+        <v>574</v>
+      </c>
+      <c r="I199" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>575</v>
+      </c>
+      <c r="B200" t="s">
+        <v>576</v>
+      </c>
+      <c r="C200" t="s">
+        <v>210</v>
+      </c>
+      <c r="D200" t="s">
+        <v>576</v>
+      </c>
+      <c r="E200">
+        <v>47.65308727</v>
+      </c>
+      <c r="F200">
+        <v>23.568058600000001</v>
+      </c>
+      <c r="G200" t="s">
+        <v>418</v>
+      </c>
+      <c r="H200" t="s">
+        <v>577</v>
+      </c>
+      <c r="I200" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>578</v>
+      </c>
+      <c r="B201" t="s">
+        <v>579</v>
+      </c>
+      <c r="C201" t="s">
+        <v>580</v>
+      </c>
+      <c r="D201" t="s">
+        <v>579</v>
+      </c>
+      <c r="E201">
+        <v>47.137077259999998</v>
+      </c>
+      <c r="F201">
+        <v>24.49335232</v>
+      </c>
+      <c r="G201" t="s">
+        <v>418</v>
+      </c>
+      <c r="H201" t="s">
+        <v>581</v>
+      </c>
+      <c r="I201" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>582</v>
+      </c>
+      <c r="B202" t="s">
+        <v>583</v>
+      </c>
+      <c r="C202" t="s">
+        <v>584</v>
+      </c>
+      <c r="D202" t="s">
+        <v>583</v>
+      </c>
+      <c r="E202">
+        <v>47.065169900000001</v>
+      </c>
+      <c r="F202">
+        <v>21.904024360000001</v>
+      </c>
+      <c r="G202" t="s">
+        <v>418</v>
+      </c>
+      <c r="H202" t="s">
+        <v>585</v>
+      </c>
+      <c r="I202" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>586</v>
+      </c>
+      <c r="B203" t="s">
+        <v>587</v>
+      </c>
+      <c r="C203" t="s">
+        <v>584</v>
+      </c>
+      <c r="D203" t="s">
+        <v>587</v>
+      </c>
+      <c r="E203">
+        <v>47.050286020000001</v>
+      </c>
+      <c r="F203">
+        <v>21.929796899999999</v>
+      </c>
+      <c r="G203" t="s">
+        <v>418</v>
+      </c>
+      <c r="H203" t="s">
+        <v>588</v>
+      </c>
+      <c r="I203" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>589</v>
+      </c>
+      <c r="B204" t="s">
+        <v>590</v>
+      </c>
+      <c r="C204" t="s">
+        <v>584</v>
+      </c>
+      <c r="D204" t="s">
+        <v>590</v>
+      </c>
+      <c r="E204">
+        <v>47.048473729999998</v>
+      </c>
+      <c r="F204">
+        <v>21.961950900000001</v>
+      </c>
+      <c r="G204" t="s">
+        <v>418</v>
+      </c>
+      <c r="H204" t="s">
+        <v>591</v>
+      </c>
+      <c r="I204" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>592</v>
+      </c>
+      <c r="B205" t="s">
+        <v>593</v>
+      </c>
+      <c r="C205" t="s">
+        <v>584</v>
+      </c>
+      <c r="D205" t="s">
+        <v>593</v>
+      </c>
+      <c r="E205">
+        <v>47.062374519999999</v>
+      </c>
+      <c r="F205">
+        <v>21.93949825</v>
+      </c>
+      <c r="G205" t="s">
+        <v>418</v>
+      </c>
+      <c r="H205" t="s">
+        <v>594</v>
+      </c>
+      <c r="I205" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>595</v>
+      </c>
+      <c r="B206" t="s">
+        <v>596</v>
+      </c>
+      <c r="C206" t="s">
+        <v>584</v>
+      </c>
+      <c r="D206" t="s">
+        <v>596</v>
+      </c>
+      <c r="E206">
+        <v>47.076980120000002</v>
+      </c>
+      <c r="F206">
+        <v>21.923203220000001</v>
+      </c>
+      <c r="G206" t="s">
+        <v>418</v>
+      </c>
+      <c r="H206" t="s">
+        <v>597</v>
+      </c>
+      <c r="I206" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>598</v>
+      </c>
+      <c r="B207" t="s">
+        <v>599</v>
+      </c>
+      <c r="C207" t="s">
+        <v>99</v>
+      </c>
+      <c r="D207" t="s">
+        <v>599</v>
+      </c>
+      <c r="E207">
+        <v>44.865440620000001</v>
+      </c>
+      <c r="F207">
+        <v>24.867788579999999</v>
+      </c>
+      <c r="G207" t="s">
+        <v>418</v>
+      </c>
+      <c r="H207" t="s">
+        <v>600</v>
+      </c>
+      <c r="I207" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>601</v>
+      </c>
+      <c r="B208" t="s">
+        <v>602</v>
+      </c>
+      <c r="C208" t="s">
+        <v>99</v>
+      </c>
+      <c r="D208" t="s">
+        <v>602</v>
+      </c>
+      <c r="E208">
+        <v>44.872244889999997</v>
+      </c>
+      <c r="F208">
+        <v>24.84995485</v>
+      </c>
+      <c r="G208" t="s">
+        <v>418</v>
+      </c>
+      <c r="H208" t="s">
+        <v>603</v>
+      </c>
+      <c r="I208" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>604</v>
+      </c>
+      <c r="B209" t="s">
+        <v>605</v>
+      </c>
+      <c r="C209" t="s">
+        <v>99</v>
+      </c>
+      <c r="D209" t="s">
+        <v>605</v>
+      </c>
+      <c r="E209">
+        <v>44.856832789999999</v>
+      </c>
+      <c r="F209">
+        <v>24.8745704</v>
+      </c>
+      <c r="G209" t="s">
+        <v>418</v>
+      </c>
+      <c r="H209" t="s">
+        <v>606</v>
+      </c>
+      <c r="I209" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>607</v>
+      </c>
+      <c r="B210" t="s">
+        <v>608</v>
+      </c>
+      <c r="C210" t="s">
+        <v>99</v>
+      </c>
+      <c r="D210" t="s">
+        <v>608</v>
+      </c>
+      <c r="E210">
+        <v>44.855529330000003</v>
+      </c>
+      <c r="F210">
+        <v>24.878645339999998</v>
+      </c>
+      <c r="G210" t="s">
+        <v>418</v>
+      </c>
+      <c r="H210" t="s">
+        <v>609</v>
+      </c>
+      <c r="I210" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>610</v>
+      </c>
+      <c r="B211" t="s">
+        <v>611</v>
+      </c>
+      <c r="C211" t="s">
+        <v>99</v>
+      </c>
+      <c r="D211" t="s">
+        <v>611</v>
+      </c>
+      <c r="E211">
+        <v>44.835299200000001</v>
+      </c>
+      <c r="F211">
+        <v>24.903876629999999</v>
+      </c>
+      <c r="G211" t="s">
+        <v>418</v>
+      </c>
+      <c r="H211" t="s">
+        <v>612</v>
+      </c>
+      <c r="I211" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>613</v>
+      </c>
+      <c r="B212" t="s">
+        <v>614</v>
+      </c>
+      <c r="C212" t="s">
+        <v>99</v>
+      </c>
+      <c r="D212" t="s">
+        <v>614</v>
+      </c>
+      <c r="E212">
+        <v>44.85491339</v>
+      </c>
+      <c r="F212">
+        <v>24.867722780000001</v>
+      </c>
+      <c r="G212" t="s">
+        <v>418</v>
+      </c>
+      <c r="H212" t="s">
+        <v>615</v>
+      </c>
+      <c r="I212" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>616</v>
+      </c>
+      <c r="B213" t="s">
+        <v>617</v>
+      </c>
+      <c r="C213" t="s">
+        <v>99</v>
+      </c>
+      <c r="D213" t="s">
+        <v>617</v>
+      </c>
+      <c r="E213">
+        <v>44.866242339999999</v>
+      </c>
+      <c r="F213">
+        <v>24.861354330000001</v>
+      </c>
+      <c r="G213" t="s">
+        <v>418</v>
+      </c>
+      <c r="H213" t="s">
+        <v>618</v>
+      </c>
+      <c r="I213" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>619</v>
+      </c>
+      <c r="B214" t="s">
+        <v>620</v>
+      </c>
+      <c r="C214" t="s">
+        <v>99</v>
+      </c>
+      <c r="D214" t="s">
+        <v>620</v>
+      </c>
+      <c r="E214">
+        <v>44.85981263</v>
+      </c>
+      <c r="F214">
+        <v>24.876797</v>
+      </c>
+      <c r="G214" t="s">
+        <v>418</v>
+      </c>
+      <c r="H214" t="s">
+        <v>621</v>
+      </c>
+      <c r="I214" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>622</v>
+      </c>
+      <c r="B215" t="s">
+        <v>623</v>
+      </c>
+      <c r="C215" t="s">
+        <v>55</v>
+      </c>
+      <c r="D215" t="s">
+        <v>623</v>
+      </c>
+      <c r="E215">
+        <v>44.942984780000003</v>
+      </c>
+      <c r="F215">
+        <v>26.03001991</v>
+      </c>
+      <c r="G215" t="s">
+        <v>418</v>
+      </c>
+      <c r="H215" t="s">
+        <v>624</v>
+      </c>
+      <c r="I215" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>625</v>
+      </c>
+      <c r="B216" t="s">
+        <v>626</v>
+      </c>
+      <c r="C216" t="s">
+        <v>184</v>
+      </c>
+      <c r="D216" t="s">
+        <v>626</v>
+      </c>
+      <c r="E216">
+        <v>47.792503400000001</v>
+      </c>
+      <c r="F216">
+        <v>22.873444320000001</v>
+      </c>
+      <c r="G216" t="s">
+        <v>418</v>
+      </c>
+      <c r="H216" t="s">
+        <v>562</v>
+      </c>
+      <c r="I216" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>627</v>
+      </c>
+      <c r="B217" t="s">
+        <v>628</v>
+      </c>
+      <c r="C217" t="s">
+        <v>184</v>
+      </c>
+      <c r="D217" t="s">
+        <v>628</v>
+      </c>
+      <c r="E217">
+        <v>47.793109620000003</v>
+      </c>
+      <c r="F217">
+        <v>22.86819217</v>
+      </c>
+      <c r="G217" t="s">
+        <v>418</v>
+      </c>
+      <c r="H217" t="s">
+        <v>629</v>
+      </c>
+      <c r="I217" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>630</v>
+      </c>
+      <c r="B218" t="s">
+        <v>631</v>
+      </c>
+      <c r="C218" t="s">
+        <v>93</v>
+      </c>
+      <c r="D218" t="s">
+        <v>631</v>
+      </c>
+      <c r="E218">
+        <v>45.639950769999999</v>
+      </c>
+      <c r="F218">
+        <v>25.61400575</v>
+      </c>
+      <c r="G218" t="s">
+        <v>418</v>
+      </c>
+      <c r="H218" t="s">
+        <v>632</v>
+      </c>
+      <c r="I218" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>633</v>
+      </c>
+      <c r="B219" t="s">
+        <v>634</v>
+      </c>
+      <c r="C219" t="s">
+        <v>93</v>
+      </c>
+      <c r="D219" t="s">
+        <v>634</v>
+      </c>
+      <c r="E219">
+        <v>45.650833890000001</v>
+      </c>
+      <c r="F219">
+        <v>25.617108470000002</v>
+      </c>
+      <c r="G219" t="s">
+        <v>418</v>
+      </c>
+      <c r="H219" t="s">
+        <v>635</v>
+      </c>
+      <c r="I219" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>636</v>
+      </c>
+      <c r="B220" t="s">
+        <v>637</v>
+      </c>
+      <c r="C220" t="s">
+        <v>93</v>
+      </c>
+      <c r="D220" t="s">
+        <v>637</v>
+      </c>
+      <c r="E220">
+        <v>45.657203269999997</v>
+      </c>
+      <c r="F220">
+        <v>25.62312545</v>
+      </c>
+      <c r="G220" t="s">
+        <v>418</v>
+      </c>
+      <c r="H220" t="s">
+        <v>638</v>
+      </c>
+      <c r="I220" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>639</v>
+      </c>
+      <c r="B221" t="s">
+        <v>640</v>
+      </c>
+      <c r="C221" t="s">
+        <v>93</v>
+      </c>
+      <c r="D221" t="s">
+        <v>640</v>
+      </c>
+      <c r="E221">
+        <v>45.637251169999999</v>
+      </c>
+      <c r="F221">
+        <v>25.611527760000001</v>
+      </c>
+      <c r="G221" t="s">
+        <v>418</v>
+      </c>
+      <c r="H221" t="s">
+        <v>641</v>
+      </c>
+      <c r="I221" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>642</v>
+      </c>
+      <c r="B222" t="s">
+        <v>643</v>
+      </c>
+      <c r="C222" t="s">
+        <v>644</v>
+      </c>
+      <c r="D222" t="s">
+        <v>643</v>
+      </c>
+      <c r="E222">
+        <v>46.76279083</v>
+      </c>
+      <c r="F222">
+        <v>23.613705410000001</v>
+      </c>
+      <c r="G222" t="s">
+        <v>418</v>
+      </c>
+      <c r="H222" t="s">
+        <v>645</v>
+      </c>
+      <c r="I222" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>646</v>
+      </c>
+      <c r="B223" t="s">
+        <v>647</v>
+      </c>
+      <c r="C223" t="s">
+        <v>644</v>
+      </c>
+      <c r="D223" t="s">
+        <v>647</v>
+      </c>
+      <c r="E223">
+        <v>46.781847280000001</v>
+      </c>
+      <c r="F223">
+        <v>23.626773400000001</v>
+      </c>
+      <c r="G223" t="s">
+        <v>418</v>
+      </c>
+      <c r="H223" t="s">
+        <v>648</v>
+      </c>
+      <c r="I223" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>649</v>
+      </c>
+      <c r="B224" t="s">
+        <v>650</v>
+      </c>
+      <c r="C224" t="s">
+        <v>644</v>
+      </c>
+      <c r="D224" t="s">
+        <v>650</v>
+      </c>
+      <c r="E224">
+        <v>46.7739841</v>
+      </c>
+      <c r="F224">
+        <v>23.589716159999998</v>
+      </c>
+      <c r="G224" t="s">
+        <v>418</v>
+      </c>
+      <c r="H224" t="s">
+        <v>651</v>
+      </c>
+      <c r="I224" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>625</v>
+      </c>
+      <c r="B225" t="s">
+        <v>652</v>
+      </c>
+      <c r="C225" t="s">
+        <v>653</v>
+      </c>
+      <c r="D225" t="s">
+        <v>652</v>
+      </c>
+      <c r="E225">
+        <v>45.781101360000001</v>
+      </c>
+      <c r="F225">
+        <v>24.151708410000001</v>
+      </c>
+      <c r="G225" t="s">
+        <v>418</v>
+      </c>
+      <c r="H225" t="s">
+        <v>562</v>
+      </c>
+      <c r="I225" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>654</v>
+      </c>
+      <c r="B226" t="s">
+        <v>655</v>
+      </c>
+      <c r="C226" t="s">
+        <v>653</v>
+      </c>
+      <c r="D226" t="s">
+        <v>655</v>
+      </c>
+      <c r="E226">
+        <v>45.79558359</v>
+      </c>
+      <c r="F226">
+        <v>24.160191879999999</v>
+      </c>
+      <c r="G226" t="s">
+        <v>418</v>
+      </c>
+      <c r="H226" t="s">
+        <v>656</v>
+      </c>
+      <c r="I226" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>657</v>
+      </c>
+      <c r="B227" t="s">
+        <v>658</v>
+      </c>
+      <c r="C227" t="s">
+        <v>653</v>
+      </c>
+      <c r="D227" t="s">
+        <v>658</v>
+      </c>
+      <c r="E227">
+        <v>45.785370899999997</v>
+      </c>
+      <c r="F227">
+        <v>24.173013950000001</v>
+      </c>
+      <c r="G227" t="s">
+        <v>418</v>
+      </c>
+      <c r="H227" t="s">
+        <v>659</v>
+      </c>
+      <c r="I227" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>660</v>
+      </c>
+      <c r="B228" t="s">
+        <v>661</v>
+      </c>
+      <c r="C228" t="s">
+        <v>653</v>
+      </c>
+      <c r="D228" t="s">
+        <v>661</v>
+      </c>
+      <c r="E228">
+        <v>45.787829809999998</v>
+      </c>
+      <c r="F228">
+        <v>24.142126229999999</v>
+      </c>
+      <c r="G228" t="s">
+        <v>418</v>
+      </c>
+      <c r="H228" t="s">
+        <v>662</v>
+      </c>
+      <c r="I228" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>625</v>
+      </c>
+      <c r="B229" t="s">
+        <v>663</v>
+      </c>
+      <c r="C229" t="s">
+        <v>664</v>
+      </c>
+      <c r="D229" t="s">
+        <v>663</v>
+      </c>
+      <c r="E229">
+        <v>47.926218489999997</v>
+      </c>
+      <c r="F229">
+        <v>23.903130130000001</v>
+      </c>
+      <c r="G229" t="s">
+        <v>418</v>
+      </c>
+      <c r="H229" t="s">
+        <v>665</v>
+      </c>
+      <c r="I229" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>666</v>
+      </c>
+      <c r="B230" t="s">
+        <v>667</v>
+      </c>
+      <c r="C230" t="s">
+        <v>270</v>
+      </c>
+      <c r="D230" t="s">
+        <v>667</v>
+      </c>
+      <c r="E230">
+        <v>47.64687533</v>
+      </c>
+      <c r="F230">
+        <v>26.248124149999999</v>
+      </c>
+      <c r="G230" t="s">
+        <v>418</v>
+      </c>
+      <c r="H230" t="s">
+        <v>668</v>
+      </c>
+      <c r="I230" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>669</v>
+      </c>
+      <c r="B231" t="s">
+        <v>670</v>
+      </c>
+      <c r="C231" t="s">
+        <v>671</v>
+      </c>
+      <c r="D231" t="s">
+        <v>670</v>
+      </c>
+      <c r="E231">
+        <v>46.53344602</v>
+      </c>
+      <c r="F231">
+        <v>24.588456000000001</v>
+      </c>
+      <c r="G231" t="s">
+        <v>418</v>
+      </c>
+      <c r="H231" t="s">
+        <v>672</v>
+      </c>
+      <c r="I231" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>673</v>
+      </c>
+      <c r="B232" t="s">
+        <v>674</v>
+      </c>
+      <c r="C232" t="s">
+        <v>671</v>
+      </c>
+      <c r="D232" t="s">
+        <v>674</v>
+      </c>
+      <c r="E232">
+        <v>46.551165570000002</v>
+      </c>
+      <c r="F232">
+        <v>24.573751219999998</v>
+      </c>
+      <c r="G232" t="s">
+        <v>418</v>
+      </c>
+      <c r="H232" t="s">
+        <v>675</v>
+      </c>
+      <c r="I232" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>676</v>
+      </c>
+      <c r="B233" t="s">
+        <v>677</v>
+      </c>
+      <c r="C233" t="s">
+        <v>2</v>
+      </c>
+      <c r="D233" t="s">
+        <v>677</v>
+      </c>
+      <c r="E233">
+        <v>45.75746736</v>
+      </c>
+      <c r="F233">
+        <v>21.228832430000001</v>
+      </c>
+      <c r="G233" t="s">
+        <v>418</v>
+      </c>
+      <c r="H233" t="s">
+        <v>678</v>
+      </c>
+      <c r="I233" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>679</v>
+      </c>
+      <c r="B234" t="s">
+        <v>680</v>
+      </c>
+      <c r="C234" t="s">
+        <v>2</v>
+      </c>
+      <c r="D234" t="s">
+        <v>680</v>
+      </c>
+      <c r="E234">
+        <v>45.762233760000001</v>
+      </c>
+      <c r="F234">
+        <v>21.213341679999999</v>
+      </c>
+      <c r="G234" t="s">
+        <v>418</v>
+      </c>
+      <c r="H234" t="s">
+        <v>681</v>
+      </c>
+      <c r="I234" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>682</v>
+      </c>
+      <c r="B235" t="s">
+        <v>683</v>
+      </c>
+      <c r="C235" t="s">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s">
+        <v>683</v>
+      </c>
+      <c r="E235">
+        <v>45.77575659</v>
+      </c>
+      <c r="F235">
+        <v>21.237748549999999</v>
+      </c>
+      <c r="G235" t="s">
+        <v>418</v>
+      </c>
+      <c r="H235" t="s">
+        <v>562</v>
+      </c>
+      <c r="I235" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>625</v>
+      </c>
+      <c r="B236" t="s">
+        <v>684</v>
+      </c>
+      <c r="C236" t="s">
+        <v>71</v>
+      </c>
+      <c r="D236" t="s">
+        <v>684</v>
+      </c>
+      <c r="E236">
+        <v>44.185898559999998</v>
+      </c>
+      <c r="F236">
+        <v>28.628451980000001</v>
+      </c>
+      <c r="G236" t="s">
+        <v>418</v>
+      </c>
+      <c r="H236" t="s">
+        <v>562</v>
+      </c>
+      <c r="I236" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>685</v>
+      </c>
+      <c r="B237" t="s">
+        <v>686</v>
+      </c>
+      <c r="C237" t="s">
+        <v>71</v>
+      </c>
+      <c r="D237" t="s">
+        <v>686</v>
+      </c>
+      <c r="E237">
+        <v>44.201605370000003</v>
+      </c>
+      <c r="F237">
+        <v>28.627816299999999</v>
+      </c>
+      <c r="G237" t="s">
+        <v>418</v>
+      </c>
+      <c r="H237" t="s">
+        <v>687</v>
+      </c>
+      <c r="I237" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>688</v>
+      </c>
+      <c r="B238" t="s">
+        <v>689</v>
+      </c>
+      <c r="C238" t="s">
+        <v>71</v>
+      </c>
+      <c r="D238" t="s">
+        <v>689</v>
+      </c>
+      <c r="E238">
+        <v>44.318418020000003</v>
+      </c>
+      <c r="F238">
+        <v>28.608467000000001</v>
+      </c>
+      <c r="G238" t="s">
+        <v>418</v>
+      </c>
+      <c r="H238" t="s">
+        <v>690</v>
+      </c>
+      <c r="I238" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>691</v>
+      </c>
+      <c r="B239" t="s">
+        <v>692</v>
+      </c>
+      <c r="C239" t="s">
+        <v>693</v>
+      </c>
+      <c r="D239" t="s">
+        <v>692</v>
+      </c>
+      <c r="E239">
+        <v>44.317410369999997</v>
+      </c>
+      <c r="F239">
+        <v>23.794031700000001</v>
+      </c>
+      <c r="G239" t="s">
+        <v>418</v>
+      </c>
+      <c r="H239" t="s">
+        <v>694</v>
+      </c>
+      <c r="I239" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>695</v>
+      </c>
+      <c r="B240" t="s">
+        <v>696</v>
+      </c>
+      <c r="C240" t="s">
+        <v>693</v>
+      </c>
+      <c r="D240" t="s">
+        <v>696</v>
+      </c>
+      <c r="E240">
+        <v>44.318382380000003</v>
+      </c>
+      <c r="F240">
+        <v>23.798203969999999</v>
+      </c>
+      <c r="G240" t="s">
+        <v>418</v>
+      </c>
+      <c r="H240" t="s">
+        <v>697</v>
+      </c>
+      <c r="I240" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>698</v>
+      </c>
+      <c r="B241" t="s">
+        <v>699</v>
+      </c>
+      <c r="C241" t="s">
+        <v>693</v>
+      </c>
+      <c r="D241" t="s">
+        <v>699</v>
+      </c>
+      <c r="E241">
+        <v>44.326169630000003</v>
+      </c>
+      <c r="F241">
+        <v>23.78585962</v>
+      </c>
+      <c r="G241" t="s">
+        <v>418</v>
+      </c>
+      <c r="H241" t="s">
+        <v>700</v>
+      </c>
+      <c r="I241" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>701</v>
+      </c>
+      <c r="B242" t="s">
+        <v>702</v>
+      </c>
+      <c r="C242" t="s">
+        <v>202</v>
+      </c>
+      <c r="D242" t="s">
+        <v>702</v>
+      </c>
+      <c r="E242">
+        <v>45.874842559999998</v>
+      </c>
+      <c r="F242">
+        <v>22.908499549999998</v>
+      </c>
+      <c r="G242" t="s">
+        <v>418</v>
+      </c>
+      <c r="H242" t="s">
+        <v>703</v>
+      </c>
+      <c r="I242" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>704</v>
+      </c>
+      <c r="B243" t="s">
+        <v>705</v>
+      </c>
+      <c r="C243" t="s">
+        <v>236</v>
+      </c>
+      <c r="D243" t="s">
+        <v>705</v>
+      </c>
+      <c r="E243">
+        <v>47.179490260000001</v>
+      </c>
+      <c r="F243">
+        <v>27.569030909999999</v>
+      </c>
+      <c r="G243" t="s">
+        <v>418</v>
+      </c>
+      <c r="H243" t="s">
+        <v>706</v>
+      </c>
+      <c r="I243" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>707</v>
+      </c>
+      <c r="B244" t="s">
+        <v>708</v>
+      </c>
+      <c r="C244" t="s">
+        <v>236</v>
+      </c>
+      <c r="D244" t="s">
+        <v>708</v>
+      </c>
+      <c r="E244">
+        <v>47.162836489999997</v>
+      </c>
+      <c r="F244">
+        <v>27.59102184</v>
+      </c>
+      <c r="G244" t="s">
+        <v>418</v>
+      </c>
+      <c r="H244" t="s">
+        <v>709</v>
+      </c>
+      <c r="I244" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>710</v>
+      </c>
+      <c r="B245" t="s">
+        <v>711</v>
+      </c>
+      <c r="C245" t="s">
+        <v>236</v>
+      </c>
+      <c r="D245" t="s">
+        <v>711</v>
+      </c>
+      <c r="E245">
+        <v>47.151792020000002</v>
+      </c>
+      <c r="F245">
+        <v>27.566858</v>
+      </c>
+      <c r="G245" t="s">
+        <v>418</v>
+      </c>
+      <c r="H245" t="s">
+        <v>712</v>
+      </c>
+      <c r="I245" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>713</v>
+      </c>
+      <c r="B246" t="s">
+        <v>714</v>
+      </c>
+      <c r="C246" t="s">
+        <v>236</v>
+      </c>
+      <c r="D246" t="s">
+        <v>714</v>
+      </c>
+      <c r="E246">
+        <v>47.141683260000001</v>
+      </c>
+      <c r="F246">
+        <v>27.60024263</v>
+      </c>
+      <c r="G246" t="s">
+        <v>418</v>
+      </c>
+      <c r="H246" t="s">
+        <v>715</v>
+      </c>
+      <c r="I246" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>716</v>
+      </c>
+      <c r="B247" t="s">
+        <v>717</v>
+      </c>
+      <c r="C247" t="s">
+        <v>236</v>
+      </c>
+      <c r="D247" t="s">
+        <v>717</v>
+      </c>
+      <c r="E247">
+        <v>47.167342779999998</v>
+      </c>
+      <c r="F247">
+        <v>27.573600299999999</v>
+      </c>
+      <c r="G247" t="s">
+        <v>418</v>
+      </c>
+      <c r="H247" t="s">
+        <v>718</v>
+      </c>
+      <c r="I247" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>625</v>
+      </c>
+      <c r="B248" t="s">
+        <v>719</v>
+      </c>
+      <c r="C248" t="s">
+        <v>236</v>
+      </c>
+      <c r="D248" t="s">
+        <v>719</v>
+      </c>
+      <c r="E248">
+        <v>47.167138020000003</v>
+      </c>
+      <c r="F248">
+        <v>27.593990030000001</v>
+      </c>
+      <c r="G248" t="s">
+        <v>418</v>
+      </c>
+      <c r="H248" t="s">
+        <v>562</v>
+      </c>
+      <c r="I248" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>625</v>
+      </c>
+      <c r="B249" t="s">
+        <v>720</v>
+      </c>
+      <c r="C249" t="s">
+        <v>653</v>
+      </c>
+      <c r="D249" t="s">
+        <v>720</v>
+      </c>
+      <c r="E249">
+        <v>45.799301919999998</v>
+      </c>
+      <c r="F249">
+        <v>24.145602100000001</v>
+      </c>
+      <c r="G249" t="s">
+        <v>418</v>
+      </c>
+      <c r="H249" t="s">
+        <v>562</v>
+      </c>
+      <c r="I249" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>625</v>
+      </c>
+      <c r="B250" t="s">
+        <v>721</v>
+      </c>
+      <c r="C250" t="s">
+        <v>722</v>
+      </c>
+      <c r="D250" t="s">
+        <v>721</v>
+      </c>
+      <c r="E250">
+        <v>46.54080115</v>
+      </c>
+      <c r="F250">
+        <v>24.557957399999999</v>
+      </c>
+      <c r="G250" t="s">
+        <v>418</v>
+      </c>
+      <c r="H250" t="s">
+        <v>562</v>
+      </c>
+      <c r="I250" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>625</v>
+      </c>
+      <c r="B251" t="s">
+        <v>723</v>
+      </c>
+      <c r="C251" t="s">
+        <v>722</v>
+      </c>
+      <c r="D251" t="s">
+        <v>723</v>
+      </c>
+      <c r="E251">
+        <v>46.528153629999998</v>
+      </c>
+      <c r="F251">
+        <v>24.554479860000001</v>
+      </c>
+      <c r="G251" t="s">
+        <v>418</v>
+      </c>
+      <c r="H251" t="s">
+        <v>724</v>
+      </c>
+      <c r="I251" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>725</v>
+      </c>
+      <c r="B252" t="s">
+        <v>726</v>
+      </c>
+      <c r="C252" t="s">
+        <v>2</v>
+      </c>
+      <c r="D252" t="s">
+        <v>726</v>
+      </c>
+      <c r="E252">
+        <v>45.732290630000001</v>
+      </c>
+      <c r="F252">
+        <v>21.25882459</v>
+      </c>
+      <c r="G252" t="s">
+        <v>418</v>
+      </c>
+      <c r="H252" t="s">
+        <v>724</v>
+      </c>
+      <c r="I252" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>625</v>
+      </c>
+      <c r="B253" t="s">
+        <v>727</v>
+      </c>
+      <c r="C253" t="s">
+        <v>2</v>
+      </c>
+      <c r="D253" t="s">
+        <v>727</v>
+      </c>
+      <c r="E253">
+        <v>45.753142080000003</v>
+      </c>
+      <c r="F253">
+        <v>21.225044659999998</v>
+      </c>
+      <c r="G253" t="s">
+        <v>418</v>
+      </c>
+      <c r="H253" t="s">
+        <v>724</v>
+      </c>
+      <c r="I253" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>625</v>
+      </c>
+      <c r="B254" t="s">
+        <v>728</v>
+      </c>
+      <c r="C254" t="s">
+        <v>2</v>
+      </c>
+      <c r="D254" t="s">
+        <v>728</v>
+      </c>
+      <c r="E254">
+        <v>45.72855904</v>
+      </c>
+      <c r="F254">
+        <v>21.206175699999999</v>
+      </c>
+      <c r="G254" t="s">
+        <v>418</v>
+      </c>
+      <c r="H254" t="s">
+        <v>724</v>
+      </c>
+      <c r="I254" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>625</v>
+      </c>
+      <c r="B255" t="s">
+        <v>729</v>
+      </c>
+      <c r="C255" t="s">
+        <v>730</v>
+      </c>
+      <c r="D255" t="s">
+        <v>729</v>
+      </c>
+      <c r="E255">
+        <v>45.751543929999997</v>
+      </c>
+      <c r="F255">
+        <v>22.902233420000002</v>
+      </c>
+      <c r="G255" t="s">
+        <v>418</v>
+      </c>
+      <c r="H255" t="s">
+        <v>724</v>
+      </c>
+      <c r="I255" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>625</v>
+      </c>
+      <c r="B256" t="s">
+        <v>731</v>
+      </c>
+      <c r="C256" t="s">
+        <v>730</v>
+      </c>
+      <c r="D256" t="s">
+        <v>731</v>
+      </c>
+      <c r="E256">
+        <v>45.768361759999998</v>
+      </c>
+      <c r="F256">
+        <v>22.911274299999999</v>
+      </c>
+      <c r="G256" t="s">
+        <v>418</v>
+      </c>
+      <c r="H256" t="s">
+        <v>724</v>
+      </c>
+      <c r="I256" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>625</v>
+      </c>
+      <c r="B257" t="s">
+        <v>732</v>
+      </c>
+      <c r="C257" t="s">
+        <v>730</v>
+      </c>
+      <c r="D257" t="s">
+        <v>732</v>
+      </c>
+      <c r="E257">
+        <v>45.763403539999999</v>
+      </c>
+      <c r="F257">
+        <v>22.909607210000001</v>
+      </c>
+      <c r="G257" t="s">
+        <v>418</v>
+      </c>
+      <c r="H257" t="s">
+        <v>724</v>
+      </c>
+      <c r="I257" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>625</v>
+      </c>
+      <c r="B258" t="s">
+        <v>733</v>
+      </c>
+      <c r="C258" t="s">
+        <v>236</v>
+      </c>
+      <c r="D258" t="s">
+        <v>733</v>
+      </c>
+      <c r="E258">
+        <v>47.179357170000003</v>
+      </c>
+      <c r="F258">
+        <v>27.56903896</v>
+      </c>
+      <c r="G258" t="s">
+        <v>418</v>
+      </c>
+      <c r="H258" t="s">
+        <v>724</v>
+      </c>
+      <c r="I258" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>625</v>
+      </c>
+      <c r="B259" t="s">
+        <v>734</v>
+      </c>
+      <c r="C259" t="s">
+        <v>236</v>
+      </c>
+      <c r="D259" t="s">
+        <v>734</v>
+      </c>
+      <c r="E259">
+        <v>47.167641809999999</v>
+      </c>
+      <c r="F259">
+        <v>27.580942329999999</v>
+      </c>
+      <c r="G259" t="s">
+        <v>418</v>
+      </c>
+      <c r="H259" t="s">
+        <v>724</v>
+      </c>
+      <c r="I259" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>
